--- a/03_financial_performance_done.xlsx
+++ b/03_financial_performance_done.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahoffaerber\OneDrive - zeb\Dokumente\StockIndicesPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="311" documentId="13_ncr:1_{A5E0FE93-B980-4993-B771-DE497C711CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8230D5F0-C9AF-4843-A1C1-301BA6CEFCA6}"/>
+  <xr:revisionPtr revIDLastSave="414" documentId="13_ncr:1_{A5E0FE93-B980-4993-B771-DE497C711CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{20939069-2316-4A81-81C3-0652C6F5957F}"/>
   <bookViews>
-    <workbookView xWindow="18840" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9960" yWindow="-16440" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="105">
   <si>
     <t>Model</t>
   </si>
@@ -280,30 +280,6 @@
     <t>signif</t>
   </si>
   <si>
-    <t>0.576**</t>
-  </si>
-  <si>
-    <t>0.582**</t>
-  </si>
-  <si>
-    <t>0.609**</t>
-  </si>
-  <si>
-    <t>0.512*</t>
-  </si>
-  <si>
-    <t>0.529*</t>
-  </si>
-  <si>
-    <t>0.532*</t>
-  </si>
-  <si>
-    <t>0.521**</t>
-  </si>
-  <si>
-    <t>0.510*</t>
-  </si>
-  <si>
     <t>Trad.</t>
   </si>
   <si>
@@ -334,7 +310,55 @@
     <t>ARIMA</t>
   </si>
   <si>
-    <t>We test for equality of our portfolios and equal-share benchmark: Level at 90% (*), 95% (**), 99% (***)</t>
+    <t>0.456**</t>
+  </si>
+  <si>
+    <t>0.383*</t>
+  </si>
+  <si>
+    <t>0.405*</t>
+  </si>
+  <si>
+    <t>0.409*</t>
+  </si>
+  <si>
+    <t>0.484**</t>
+  </si>
+  <si>
+    <t>0.365*</t>
+  </si>
+  <si>
+    <t>Benchmark (Equal-Weight)</t>
+  </si>
+  <si>
+    <t>U.S. 3-Month Treasury Bill Rate acts as risk-free rate for Sharpe Ratio calculation</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <r>
+      <t>Sharpe Ratio</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1,2)</t>
+    </r>
+  </si>
+  <si>
+    <t>0.395**</t>
+  </si>
+  <si>
+    <t>We test for equality of our portfolios and equal-weight benchmark: Levels at 90% (*), 95% (**), 99% (***)</t>
   </si>
 </sst>
 </file>
@@ -344,7 +368,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -365,13 +389,29 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="8"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,12 +421,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -497,21 +531,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -556,12 +578,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -581,11 +597,204 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="89">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -604,6 +813,26 @@
         <b/>
         <i val="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -655,50 +884,6 @@
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1441,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AB150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H153" sqref="H153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1503,10 +1688,10 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1573,18 +1758,18 @@
       <c r="H7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="11" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.35">
@@ -1597,20 +1782,20 @@
       <c r="H8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="11" t="s">
+      <c r="I8" s="16"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="11" t="s">
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.35">
@@ -1625,8 +1810,8 @@
       <c r="H9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="19"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="10" t="s">
         <v>18</v>
       </c>
@@ -1636,8 +1821,8 @@
       <c r="M9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="19"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="15"/>
       <c r="P9" s="10" t="s">
         <v>18</v>
       </c>
@@ -1651,11 +1836,11 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1689,9 +1874,9 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1725,9 +1910,9 @@
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1761,9 +1946,9 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="3" t="s">
         <v>4</v>
       </c>
@@ -1797,9 +1982,9 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1833,9 +2018,9 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="3" t="s">
         <v>6</v>
       </c>
@@ -1869,29 +2054,29 @@
     </row>
     <row r="16" spans="2:20" ht="5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="2:19" ht="5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="5"/>
@@ -1909,11 +2094,11 @@
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="3" t="s">
         <v>7</v>
       </c>
@@ -1947,9 +2132,9 @@
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="3" t="s">
         <v>10</v>
       </c>
@@ -1983,9 +2168,9 @@
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="3" t="s">
         <v>21</v>
       </c>
@@ -2019,29 +2204,29 @@
     </row>
     <row r="21" spans="2:19" ht="5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="2:19" ht="5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="5"/>
@@ -2059,9 +2244,9 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="3" t="s">
         <v>7</v>
       </c>
@@ -2095,9 +2280,9 @@
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
@@ -2131,29 +2316,29 @@
     </row>
     <row r="25" spans="2:19" ht="5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="2:19" ht="5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="5"/>
@@ -2178,9 +2363,9 @@
         <v>25</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="19"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="15"/>
       <c r="K27" s="5">
         <v>4.0129999999999999</v>
       </c>
@@ -2228,11 +2413,11 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2272,7 +2457,7 @@
         <v>5.2779999999999996</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="28" t="s">
+      <c r="H31" s="24" t="s">
         <v>24</v>
       </c>
       <c r="I31" s="1"/>
@@ -2295,8 +2480,8 @@
       <c r="F32" s="5">
         <v>6.915</v>
       </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28" t="s">
+      <c r="G32" s="23"/>
+      <c r="H32" s="24" t="s">
         <v>22</v>
       </c>
       <c r="I32" s="1"/>
@@ -2319,8 +2504,8 @@
       <c r="F33" s="5">
         <v>0.56200000000000006</v>
       </c>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28" t="s">
+      <c r="G33" s="23"/>
+      <c r="H33" s="24" t="s">
         <v>23</v>
       </c>
       <c r="I33" s="1"/>
@@ -2440,10 +2625,10 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="12"/>
+      <c r="G39" s="11"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2507,18 +2692,18 @@
       <c r="H42" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="11" t="s">
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
       <c r="S42" s="1"/>
     </row>
     <row r="43" spans="2:25" x14ac:dyDescent="0.35">
@@ -2531,20 +2716,20 @@
       <c r="H43" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I43" s="20"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="11" t="s">
+      <c r="I43" s="16"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="11" t="s">
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
       <c r="S43" s="1"/>
     </row>
     <row r="44" spans="2:25" x14ac:dyDescent="0.35">
@@ -2559,8 +2744,8 @@
       <c r="H44" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I44" s="20"/>
-      <c r="J44" s="19"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="15"/>
       <c r="K44" s="10" t="s">
         <v>18</v>
       </c>
@@ -2570,8 +2755,8 @@
       <c r="M44" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N44" s="20"/>
-      <c r="O44" s="19"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="15"/>
       <c r="P44" s="10" t="s">
         <v>18</v>
       </c>
@@ -2594,11 +2779,11 @@
     </row>
     <row r="45" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B45" s="1"/>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
       <c r="F45" s="3" t="s">
         <v>1</v>
       </c>
@@ -2619,14 +2804,14 @@
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="5"/>
-      <c r="P45" s="30">
-        <v>0.57649293330593465</v>
-      </c>
-      <c r="Q45" s="30">
-        <v>0.57649293330593465</v>
-      </c>
-      <c r="R45" s="30">
-        <v>0.57649293330593465</v>
+      <c r="P45" s="26">
+        <v>0.45624415287115799</v>
+      </c>
+      <c r="Q45" s="26">
+        <v>0.45624415287115799</v>
+      </c>
+      <c r="R45" s="26">
+        <v>0.45624415287115799</v>
       </c>
       <c r="S45" s="1"/>
       <c r="V45" s="3" t="s">
@@ -2634,22 +2819,22 @@
       </c>
       <c r="W45">
         <f>IF(W$44="none",VLOOKUP($V45,Sharpes!$G$2:$I$12,3,FALSE),IF(W$44="once",VLOOKUP($V45,Sharpes!$G$13:$I$23,3,FALSE),IF(W$44="twice",VLOOKUP($V45,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.57649293330593465</v>
+        <v>0.45624415287115799</v>
       </c>
       <c r="X45">
         <f>IF(X$44="none",VLOOKUP($V45,Sharpes!$G$2:$I$12,3,FALSE),IF(X$44="once",VLOOKUP($V45,Sharpes!$G$13:$I$23,3,FALSE),IF(X$44="twice",VLOOKUP($V45,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.57649293330593465</v>
+        <v>0.45624415287115799</v>
       </c>
       <c r="Y45">
         <f>IF(Y$44="none",VLOOKUP($V45,Sharpes!$G$2:$I$12,3,FALSE),IF(Y$44="once",VLOOKUP($V45,Sharpes!$G$13:$I$23,3,FALSE),IF(Y$44="twice",VLOOKUP($V45,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.57649293330593465</v>
+        <v>0.45624415287115799</v>
       </c>
     </row>
     <row r="46" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B46" s="1"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
       <c r="F46" s="3" t="s">
         <v>2</v>
       </c>
@@ -2670,14 +2855,14 @@
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="5"/>
-      <c r="P46" s="30">
-        <v>0.41858931583344405</v>
-      </c>
-      <c r="Q46" s="30">
-        <v>0.47568581340023613</v>
-      </c>
-      <c r="R46" s="30">
-        <v>0.47301433468144799</v>
+      <c r="P46" s="26">
+        <v>0.31412111177249757</v>
+      </c>
+      <c r="Q46" s="26">
+        <v>0.36461563082331594</v>
+      </c>
+      <c r="R46" s="26">
+        <v>0.36119059214602317</v>
       </c>
       <c r="S46" s="1"/>
       <c r="V46" s="3" t="s">
@@ -2685,22 +2870,22 @@
       </c>
       <c r="W46">
         <f>IF(W$44="none",VLOOKUP($V46,Sharpes!$G$2:$I$12,3,FALSE),IF(W$44="once",VLOOKUP($V46,Sharpes!$G$13:$I$23,3,FALSE),IF(W$44="twice",VLOOKUP($V46,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.41858931583344405</v>
+        <v>0.31412111177249757</v>
       </c>
       <c r="X46">
         <f>IF(X$44="none",VLOOKUP($V46,Sharpes!$G$2:$I$12,3,FALSE),IF(X$44="once",VLOOKUP($V46,Sharpes!$G$13:$I$23,3,FALSE),IF(X$44="twice",VLOOKUP($V46,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.47568581340023613</v>
+        <v>0.36461563082331594</v>
       </c>
       <c r="Y46">
         <f>IF(Y$44="none",VLOOKUP($V46,Sharpes!$G$2:$I$12,3,FALSE),IF(Y$44="once",VLOOKUP($V46,Sharpes!$G$13:$I$23,3,FALSE),IF(Y$44="twice",VLOOKUP($V46,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.47301433468144799</v>
+        <v>0.36119059214602317</v>
       </c>
     </row>
     <row r="47" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2721,14 +2906,14 @@
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="5"/>
-      <c r="P47" s="30">
-        <v>0.45288689610474597</v>
-      </c>
-      <c r="Q47" s="30">
-        <v>0.3777184707131051</v>
-      </c>
-      <c r="R47" s="30">
-        <v>0.41096876725165948</v>
+      <c r="P47" s="26">
+        <v>0.33594288372240294</v>
+      </c>
+      <c r="Q47" s="26">
+        <v>0.26207600921530494</v>
+      </c>
+      <c r="R47" s="26">
+        <v>0.29897723023340483</v>
       </c>
       <c r="S47" s="1"/>
       <c r="V47" s="3" t="s">
@@ -2736,22 +2921,22 @@
       </c>
       <c r="W47">
         <f>IF(W$44="none",VLOOKUP($V47,Sharpes!$G$2:$I$12,3,FALSE),IF(W$44="once",VLOOKUP($V47,Sharpes!$G$13:$I$23,3,FALSE),IF(W$44="twice",VLOOKUP($V47,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.45288689610474597</v>
+        <v>0.33594288372240294</v>
       </c>
       <c r="X47">
         <f>IF(X$44="none",VLOOKUP($V47,Sharpes!$G$2:$I$12,3,FALSE),IF(X$44="once",VLOOKUP($V47,Sharpes!$G$13:$I$23,3,FALSE),IF(X$44="twice",VLOOKUP($V47,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.3777184707131051</v>
+        <v>0.26207600921530494</v>
       </c>
       <c r="Y47">
         <f>IF(Y$44="none",VLOOKUP($V47,Sharpes!$G$2:$I$12,3,FALSE),IF(Y$44="once",VLOOKUP($V47,Sharpes!$G$13:$I$23,3,FALSE),IF(Y$44="twice",VLOOKUP($V47,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.41096876725165948</v>
+        <v>0.29897723023340483</v>
       </c>
     </row>
     <row r="48" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2772,14 +2957,14 @@
       </c>
       <c r="N48" s="4"/>
       <c r="O48" s="5"/>
-      <c r="P48" s="30">
-        <v>0.51004853403743244</v>
-      </c>
-      <c r="Q48" s="30">
-        <v>0.58249386248519175</v>
-      </c>
-      <c r="R48" s="30">
-        <v>0.60877543307909732</v>
+      <c r="P48" s="26">
+        <v>0.37829927598619539</v>
+      </c>
+      <c r="Q48" s="26">
+        <v>0.45632384004622317</v>
+      </c>
+      <c r="R48" s="26">
+        <v>0.4844306313932415</v>
       </c>
       <c r="S48" s="1"/>
       <c r="V48" s="3" t="s">
@@ -2787,22 +2972,22 @@
       </c>
       <c r="W48">
         <f>IF(W$44="none",VLOOKUP($V48,Sharpes!$G$2:$I$12,3,FALSE),IF(W$44="once",VLOOKUP($V48,Sharpes!$G$13:$I$23,3,FALSE),IF(W$44="twice",VLOOKUP($V48,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.51004853403743244</v>
+        <v>0.37829927598619539</v>
       </c>
       <c r="X48">
         <f>IF(X$44="none",VLOOKUP($V48,Sharpes!$G$2:$I$12,3,FALSE),IF(X$44="once",VLOOKUP($V48,Sharpes!$G$13:$I$23,3,FALSE),IF(X$44="twice",VLOOKUP($V48,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.58249386248519175</v>
+        <v>0.45632384004622317</v>
       </c>
       <c r="Y48">
         <f>IF(Y$44="none",VLOOKUP($V48,Sharpes!$G$2:$I$12,3,FALSE),IF(Y$44="once",VLOOKUP($V48,Sharpes!$G$13:$I$23,3,FALSE),IF(Y$44="twice",VLOOKUP($V48,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.60877543307909732</v>
+        <v>0.4844306313932415</v>
       </c>
     </row>
     <row r="49" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2823,14 +3008,14 @@
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="5"/>
-      <c r="P49" s="30">
-        <v>0.45288689610474597</v>
-      </c>
-      <c r="Q49" s="30">
-        <v>0.47384986205086177</v>
-      </c>
-      <c r="R49" s="30">
-        <v>0.41642889129409733</v>
+      <c r="P49" s="26">
+        <v>0.33594288372240294</v>
+      </c>
+      <c r="Q49" s="26">
+        <v>0.35773574521851498</v>
+      </c>
+      <c r="R49" s="26">
+        <v>0.30316099036946637</v>
       </c>
       <c r="S49" s="1"/>
       <c r="V49" s="3" t="s">
@@ -2838,22 +3023,22 @@
       </c>
       <c r="W49">
         <f>IF(W$44="none",VLOOKUP($V49,Sharpes!$G$2:$I$12,3,FALSE),IF(W$44="once",VLOOKUP($V49,Sharpes!$G$13:$I$23,3,FALSE),IF(W$44="twice",VLOOKUP($V49,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.45288689610474597</v>
+        <v>0.33594288372240294</v>
       </c>
       <c r="X49">
         <f>IF(X$44="none",VLOOKUP($V49,Sharpes!$G$2:$I$12,3,FALSE),IF(X$44="once",VLOOKUP($V49,Sharpes!$G$13:$I$23,3,FALSE),IF(X$44="twice",VLOOKUP($V49,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.47384986205086177</v>
+        <v>0.35773574521851498</v>
       </c>
       <c r="Y49">
         <f>IF(Y$44="none",VLOOKUP($V49,Sharpes!$G$2:$I$12,3,FALSE),IF(Y$44="once",VLOOKUP($V49,Sharpes!$G$13:$I$23,3,FALSE),IF(Y$44="twice",VLOOKUP($V49,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.41642889129409733</v>
+        <v>0.30316099036946637</v>
       </c>
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
       <c r="F50" s="3" t="s">
         <v>6</v>
       </c>
@@ -2874,14 +3059,14 @@
       </c>
       <c r="N50" s="4"/>
       <c r="O50" s="5"/>
-      <c r="P50" s="30">
-        <v>0.57649293330593465</v>
-      </c>
-      <c r="Q50" s="30">
-        <v>0.57649293330593465</v>
-      </c>
-      <c r="R50" s="30">
-        <v>0.57649293330593465</v>
+      <c r="P50" s="26">
+        <v>0.45624415287115799</v>
+      </c>
+      <c r="Q50" s="26">
+        <v>0.45624415287115799</v>
+      </c>
+      <c r="R50" s="26">
+        <v>0.45624415287115799</v>
       </c>
       <c r="S50" s="1"/>
       <c r="V50" s="3" t="s">
@@ -2889,37 +3074,37 @@
       </c>
       <c r="W50">
         <f>IF(W$44="none",VLOOKUP($V50,Sharpes!$G$2:$I$12,3,FALSE),IF(W$44="once",VLOOKUP($V50,Sharpes!$G$13:$I$23,3,FALSE),IF(W$44="twice",VLOOKUP($V50,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.57649293330593465</v>
+        <v>0.45624415287115799</v>
       </c>
       <c r="X50">
         <f>IF(X$44="none",VLOOKUP($V50,Sharpes!$G$2:$I$12,3,FALSE),IF(X$44="once",VLOOKUP($V50,Sharpes!$G$13:$I$23,3,FALSE),IF(X$44="twice",VLOOKUP($V50,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.57649293330593465</v>
+        <v>0.45624415287115799</v>
       </c>
       <c r="Y50">
         <f>IF(Y$44="none",VLOOKUP($V50,Sharpes!$G$2:$I$12,3,FALSE),IF(Y$44="once",VLOOKUP($V50,Sharpes!$G$13:$I$23,3,FALSE),IF(Y$44="twice",VLOOKUP($V50,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.57649293330593465</v>
+        <v>0.45624415287115799</v>
       </c>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B51" s="1"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
       <c r="S51" s="1"/>
-      <c r="V51" s="22"/>
+      <c r="V51" s="18"/>
       <c r="W51" t="e">
         <f>IF(W$44="none",VLOOKUP($V51,Sharpes!$G$2:$I$12,3,FALSE),IF(W$44="once",VLOOKUP($V51,Sharpes!$G$13:$I$23,3,FALSE),IF(W$44="twice",VLOOKUP($V51,Sharpes!$G$24:$I$34,3,FALSE))))</f>
         <v>#N/A</v>
@@ -2935,9 +3120,9 @@
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B52" s="1"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="5"/>
@@ -2968,11 +3153,11 @@
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B53" s="1"/>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
       <c r="F53" s="3" t="s">
         <v>7</v>
       </c>
@@ -2993,14 +3178,14 @@
       </c>
       <c r="N53" s="4"/>
       <c r="O53" s="5"/>
-      <c r="P53" s="30">
-        <v>0.51177127699323144</v>
-      </c>
-      <c r="Q53" s="30">
-        <v>0.52918314313960957</v>
-      </c>
-      <c r="R53" s="30">
-        <v>0.53158147392943433</v>
+      <c r="P53" s="26">
+        <v>0.38344495059684569</v>
+      </c>
+      <c r="Q53" s="26">
+        <v>0.40547970103667658</v>
+      </c>
+      <c r="R53" s="26">
+        <v>0.40884974513999151</v>
       </c>
       <c r="S53" s="1"/>
       <c r="V53" s="3" t="s">
@@ -3008,22 +3193,22 @@
       </c>
       <c r="W53">
         <f>IF(W$44="none",VLOOKUP($V53,Sharpes!$G$2:$I$12,3,FALSE),IF(W$44="once",VLOOKUP($V53,Sharpes!$G$13:$I$23,3,FALSE),IF(W$44="twice",VLOOKUP($V53,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.51177127699323144</v>
+        <v>0.38344495059684569</v>
       </c>
       <c r="X53">
         <f>IF(X$44="none",VLOOKUP($V53,Sharpes!$G$2:$I$12,3,FALSE),IF(X$44="once",VLOOKUP($V53,Sharpes!$G$13:$I$23,3,FALSE),IF(X$44="twice",VLOOKUP($V53,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.52918314313960957</v>
+        <v>0.40547970103667658</v>
       </c>
       <c r="Y53">
         <f>IF(Y$44="none",VLOOKUP($V53,Sharpes!$G$2:$I$12,3,FALSE),IF(Y$44="once",VLOOKUP($V53,Sharpes!$G$13:$I$23,3,FALSE),IF(Y$44="twice",VLOOKUP($V53,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.53158147392943433</v>
+        <v>0.40884974513999151</v>
       </c>
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B54" s="1"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
       <c r="F54" s="3" t="s">
         <v>10</v>
       </c>
@@ -3044,14 +3229,14 @@
       </c>
       <c r="N54" s="4"/>
       <c r="O54" s="5"/>
-      <c r="P54" s="30">
-        <v>0.57649293330593465</v>
-      </c>
-      <c r="Q54" s="30">
-        <v>0.57649293330593465</v>
-      </c>
-      <c r="R54" s="30">
-        <v>0.57649293330593465</v>
+      <c r="P54" s="26">
+        <v>0.45624415287115799</v>
+      </c>
+      <c r="Q54" s="26">
+        <v>0.45624415287115799</v>
+      </c>
+      <c r="R54" s="26">
+        <v>0.45624415287115799</v>
       </c>
       <c r="S54" s="1"/>
       <c r="V54" s="3" t="s">
@@ -3059,22 +3244,22 @@
       </c>
       <c r="W54">
         <f>IF(W$44="none",VLOOKUP($V54,Sharpes!$G$2:$I$12,3,FALSE),IF(W$44="once",VLOOKUP($V54,Sharpes!$G$13:$I$23,3,FALSE),IF(W$44="twice",VLOOKUP($V54,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.57649293330593465</v>
+        <v>0.45624415287115799</v>
       </c>
       <c r="X54">
         <f>IF(X$44="none",VLOOKUP($V54,Sharpes!$G$2:$I$12,3,FALSE),IF(X$44="once",VLOOKUP($V54,Sharpes!$G$13:$I$23,3,FALSE),IF(X$44="twice",VLOOKUP($V54,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.57649293330593465</v>
+        <v>0.45624415287115799</v>
       </c>
       <c r="Y54">
         <f>IF(Y$44="none",VLOOKUP($V54,Sharpes!$G$2:$I$12,3,FALSE),IF(Y$44="once",VLOOKUP($V54,Sharpes!$G$13:$I$23,3,FALSE),IF(Y$44="twice",VLOOKUP($V54,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.57649293330593465</v>
+        <v>0.45624415287115799</v>
       </c>
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B55" s="1"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
       <c r="F55" s="3" t="s">
         <v>21</v>
       </c>
@@ -3095,14 +3280,14 @@
       </c>
       <c r="N55" s="4"/>
       <c r="O55" s="5"/>
-      <c r="P55" s="30">
-        <v>0.51177127699323144</v>
-      </c>
-      <c r="Q55" s="30">
-        <v>0.52918314313960957</v>
-      </c>
-      <c r="R55" s="30">
-        <v>0.53158147392943433</v>
+      <c r="P55" s="26">
+        <v>0.38344495059684569</v>
+      </c>
+      <c r="Q55" s="26">
+        <v>0.40547970103667658</v>
+      </c>
+      <c r="R55" s="26">
+        <v>0.40884974513999151</v>
       </c>
       <c r="S55" s="1"/>
       <c r="V55" s="3" t="s">
@@ -3110,37 +3295,37 @@
       </c>
       <c r="W55">
         <f>IF(W$44="none",VLOOKUP($V55,Sharpes!$G$2:$I$12,3,FALSE),IF(W$44="once",VLOOKUP($V55,Sharpes!$G$13:$I$23,3,FALSE),IF(W$44="twice",VLOOKUP($V55,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.51177127699323144</v>
+        <v>0.38344495059684569</v>
       </c>
       <c r="X55">
         <f>IF(X$44="none",VLOOKUP($V55,Sharpes!$G$2:$I$12,3,FALSE),IF(X$44="once",VLOOKUP($V55,Sharpes!$G$13:$I$23,3,FALSE),IF(X$44="twice",VLOOKUP($V55,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.52918314313960957</v>
+        <v>0.40547970103667658</v>
       </c>
       <c r="Y55">
         <f>IF(Y$44="none",VLOOKUP($V55,Sharpes!$G$2:$I$12,3,FALSE),IF(Y$44="once",VLOOKUP($V55,Sharpes!$G$13:$I$23,3,FALSE),IF(Y$44="twice",VLOOKUP($V55,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.53158147392943433</v>
+        <v>0.40884974513999151</v>
       </c>
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B56" s="1"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
       <c r="S56" s="1"/>
-      <c r="V56" s="22"/>
+      <c r="V56" s="18"/>
       <c r="W56" t="e">
         <f>IF(W$44="none",VLOOKUP($V56,Sharpes!$G$2:$I$12,3,FALSE),IF(W$44="once",VLOOKUP($V56,Sharpes!$G$13:$I$23,3,FALSE),IF(W$44="twice",VLOOKUP($V56,Sharpes!$G$24:$I$34,3,FALSE))))</f>
         <v>#N/A</v>
@@ -3156,9 +3341,9 @@
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B57" s="1"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="5"/>
@@ -3189,9 +3374,9 @@
     </row>
     <row r="58" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
       <c r="F58" s="3" t="s">
         <v>7</v>
       </c>
@@ -3212,14 +3397,14 @@
       </c>
       <c r="N58" s="4"/>
       <c r="O58" s="5"/>
-      <c r="P58" s="30">
-        <v>0.52067815582742838</v>
-      </c>
-      <c r="Q58" s="30">
-        <v>0.52067815582742838</v>
-      </c>
-      <c r="R58" s="30">
-        <v>0.52067815582742838</v>
+      <c r="P58" s="26">
+        <v>0.39515931892694239</v>
+      </c>
+      <c r="Q58" s="26">
+        <v>0.39515931892694239</v>
+      </c>
+      <c r="R58" s="26">
+        <v>0.39515931892694239</v>
       </c>
       <c r="S58" s="1"/>
       <c r="V58" s="3" t="s">
@@ -3227,22 +3412,22 @@
       </c>
       <c r="W58">
         <f>IF(W$44="none",VLOOKUP($V58,Sharpes!$G$2:$I$12,3,FALSE),IF(W$44="once",VLOOKUP($V58,Sharpes!$G$13:$I$23,3,FALSE),IF(W$44="twice",VLOOKUP($V58,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.52067815582742838</v>
+        <v>0.39515931892694239</v>
       </c>
       <c r="X58">
         <f>IF(X$44="none",VLOOKUP($V58,Sharpes!$G$2:$I$12,3,FALSE),IF(X$44="once",VLOOKUP($V58,Sharpes!$G$13:$I$23,3,FALSE),IF(X$44="twice",VLOOKUP($V58,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.52067815582742838</v>
+        <v>0.39515931892694239</v>
       </c>
       <c r="Y58">
         <f>IF(Y$44="none",VLOOKUP($V58,Sharpes!$G$2:$I$12,3,FALSE),IF(Y$44="once",VLOOKUP($V58,Sharpes!$G$13:$I$23,3,FALSE),IF(Y$44="twice",VLOOKUP($V58,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.52067815582742838</v>
+        <v>0.39515931892694239</v>
       </c>
     </row>
     <row r="59" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
       <c r="F59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3263,14 +3448,14 @@
       </c>
       <c r="N59" s="4"/>
       <c r="O59" s="5"/>
-      <c r="P59" s="30">
-        <v>0.51004853403743244</v>
-      </c>
-      <c r="Q59" s="30">
-        <v>0.51004853403743244</v>
-      </c>
-      <c r="R59" s="30">
-        <v>0.51004853403743244</v>
+      <c r="P59" s="26">
+        <v>0.37829927598619539</v>
+      </c>
+      <c r="Q59" s="26">
+        <v>0.37829927598619539</v>
+      </c>
+      <c r="R59" s="26">
+        <v>0.37829927598619539</v>
       </c>
       <c r="S59" s="1"/>
       <c r="V59" s="3" t="s">
@@ -3278,43 +3463,43 @@
       </c>
       <c r="W59">
         <f>IF(W$44="none",VLOOKUP($V59,Sharpes!$G$2:$I$12,3,FALSE),IF(W$44="once",VLOOKUP($V59,Sharpes!$G$13:$I$23,3,FALSE),IF(W$44="twice",VLOOKUP($V59,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.51004853403743244</v>
+        <v>0.37829927598619539</v>
       </c>
       <c r="X59">
         <f>IF(X$44="none",VLOOKUP($V59,Sharpes!$G$2:$I$12,3,FALSE),IF(X$44="once",VLOOKUP($V59,Sharpes!$G$13:$I$23,3,FALSE),IF(X$44="twice",VLOOKUP($V59,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.51004853403743244</v>
+        <v>0.37829927598619539</v>
       </c>
       <c r="Y59">
         <f>IF(Y$44="none",VLOOKUP($V59,Sharpes!$G$2:$I$12,3,FALSE),IF(Y$44="once",VLOOKUP($V59,Sharpes!$G$13:$I$23,3,FALSE),IF(Y$44="twice",VLOOKUP($V59,Sharpes!$G$24:$I$34,3,FALSE))))</f>
-        <v>0.51004853403743244</v>
+        <v>0.37829927598619539</v>
       </c>
     </row>
     <row r="60" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="23"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
       <c r="S60" s="1"/>
-      <c r="V60" s="22"/>
+      <c r="V60" s="18"/>
     </row>
     <row r="61" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B61" s="1"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="5"/>
@@ -3340,9 +3525,9 @@
         <v>25</v>
       </c>
       <c r="G62" s="3"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="19"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="15"/>
       <c r="K62" s="5">
         <v>4.0129999999999999</v>
       </c>
@@ -3354,14 +3539,14 @@
       </c>
       <c r="N62" s="4"/>
       <c r="O62" s="5"/>
-      <c r="P62" s="5">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="Q62" s="5">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="R62" s="5">
-        <v>0.29599999999999999</v>
+      <c r="P62" s="26">
+        <v>0.24360000000000001</v>
+      </c>
+      <c r="Q62" s="26">
+        <v>0.24360000000000001</v>
+      </c>
+      <c r="R62" s="26">
+        <v>0.24360000000000001</v>
       </c>
       <c r="S62" s="1"/>
       <c r="V62" s="3" t="s">
@@ -3393,11 +3578,11 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -3437,7 +3622,7 @@
         <v>5.2779999999999996</v>
       </c>
       <c r="G66" s="1"/>
-      <c r="H66" s="28" t="s">
+      <c r="H66" s="24" t="s">
         <v>24</v>
       </c>
       <c r="I66" s="1"/>
@@ -3460,8 +3645,8 @@
       <c r="F67" s="5">
         <v>6.915</v>
       </c>
-      <c r="G67" s="27"/>
-      <c r="H67" s="28" t="s">
+      <c r="G67" s="23"/>
+      <c r="H67" s="24" t="s">
         <v>22</v>
       </c>
       <c r="I67" s="1"/>
@@ -3484,8 +3669,8 @@
       <c r="F68" s="5">
         <v>0.56200000000000006</v>
       </c>
-      <c r="G68" s="27"/>
-      <c r="H68" s="28" t="s">
+      <c r="G68" s="23"/>
+      <c r="H68" s="24" t="s">
         <v>23</v>
       </c>
       <c r="I68" s="1"/>
@@ -3565,10 +3750,10 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="12" t="s">
+      <c r="F72" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G72" s="12"/>
+      <c r="G72" s="11"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -3632,18 +3817,18 @@
       <c r="H75" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="11" t="s">
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="40"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="40"/>
       <c r="S75" s="1"/>
     </row>
     <row r="76" spans="2:25" x14ac:dyDescent="0.35">
@@ -3656,20 +3841,20 @@
       <c r="H76" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I76" s="20"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="11" t="s">
+      <c r="I76" s="16"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="L76" s="11"/>
-      <c r="M76" s="11"/>
-      <c r="N76" s="26"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="11" t="s">
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="11"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
       <c r="S76" s="1"/>
     </row>
     <row r="77" spans="2:25" x14ac:dyDescent="0.35">
@@ -3684,8 +3869,8 @@
       <c r="H77" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I77" s="20"/>
-      <c r="J77" s="19"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="15"/>
       <c r="K77" s="10" t="s">
         <v>18</v>
       </c>
@@ -3695,8 +3880,8 @@
       <c r="M77" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N77" s="20"/>
-      <c r="O77" s="19"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="15"/>
       <c r="P77" s="10" t="s">
         <v>18</v>
       </c>
@@ -3710,11 +3895,11 @@
     </row>
     <row r="78" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B78" s="1"/>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
       <c r="F78" s="3" t="s">
         <v>1</v>
       </c>
@@ -3724,25 +3909,25 @@
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="5"/>
-      <c r="K78" s="32">
+      <c r="K78" s="28">
         <v>6.915</v>
       </c>
-      <c r="L78" s="32">
+      <c r="L78" s="28">
         <v>6.915</v>
       </c>
-      <c r="M78" s="32">
+      <c r="M78" s="28">
         <v>6.915</v>
       </c>
-      <c r="N78" s="33"/>
-      <c r="O78" s="32"/>
-      <c r="P78" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q78" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="R78" s="34" t="s">
-        <v>82</v>
+      <c r="N78" s="29"/>
+      <c r="O78" s="28"/>
+      <c r="P78" s="26">
+        <v>0.45624415287115799</v>
+      </c>
+      <c r="Q78" s="26">
+        <v>0.45624415287115799</v>
+      </c>
+      <c r="R78" s="26">
+        <v>0.45624415287115799</v>
       </c>
       <c r="S78" s="1"/>
       <c r="W78" s="10" t="s">
@@ -3757,9 +3942,9 @@
     </row>
     <row r="79" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B79" s="1"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
       <c r="F79" s="3" t="s">
         <v>2</v>
       </c>
@@ -3769,25 +3954,25 @@
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="5"/>
-      <c r="K79" s="32">
+      <c r="K79" s="28">
         <v>5.2779999999999996</v>
       </c>
-      <c r="L79" s="32">
+      <c r="L79" s="28">
         <v>5.8780000000000001</v>
       </c>
-      <c r="M79" s="32">
+      <c r="M79" s="28">
         <v>5.8049999999999997</v>
       </c>
-      <c r="N79" s="33"/>
-      <c r="O79" s="32"/>
-      <c r="P79" s="32">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="Q79" s="32">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="R79" s="32">
-        <v>0.47299999999999998</v>
+      <c r="N79" s="29"/>
+      <c r="O79" s="28"/>
+      <c r="P79" s="26">
+        <v>0.31412111177249757</v>
+      </c>
+      <c r="Q79" s="26">
+        <v>0.36461563082331594</v>
+      </c>
+      <c r="R79" s="26">
+        <v>0.36119059214602317</v>
       </c>
       <c r="S79" s="1"/>
       <c r="V79" s="3" t="s">
@@ -3808,9 +3993,9 @@
     </row>
     <row r="80" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B80" s="1"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
       <c r="F80" s="3" t="s">
         <v>3</v>
       </c>
@@ -3820,25 +4005,25 @@
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="5"/>
-      <c r="K80" s="32">
+      <c r="K80" s="28">
         <v>5.3310000000000004</v>
       </c>
-      <c r="L80" s="32">
+      <c r="L80" s="28">
         <v>4.2919999999999998</v>
       </c>
-      <c r="M80" s="32">
+      <c r="M80" s="28">
         <v>4.8949999999999996</v>
       </c>
-      <c r="N80" s="33"/>
-      <c r="O80" s="32"/>
-      <c r="P80" s="32">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="Q80" s="32">
-        <v>0.378</v>
-      </c>
-      <c r="R80" s="32">
-        <v>0.41099999999999998</v>
+      <c r="N80" s="29"/>
+      <c r="O80" s="28"/>
+      <c r="P80" s="26">
+        <v>0.33594288372240294</v>
+      </c>
+      <c r="Q80" s="26">
+        <v>0.26207600921530494</v>
+      </c>
+      <c r="R80" s="26">
+        <v>0.29897723023340483</v>
       </c>
       <c r="S80" s="1"/>
       <c r="V80" s="3" t="s">
@@ -3850,18 +4035,18 @@
       </c>
       <c r="X80" t="str">
         <f>IF(X$78="none",VLOOKUP($V80,Significance!$H$2:$K$12,4,FALSE),IF(X$78="once",VLOOKUP($V80,Significance!$H$13:$K$23,4,FALSE),IF(X$78="twice",VLOOKUP($V80,Significance!$H$24:$K$34,4,FALSE))))</f>
-        <v>ns</v>
+        <v>*</v>
       </c>
       <c r="Y80" t="str">
         <f>IF(Y$78="none",VLOOKUP($V80,Significance!$H$2:$K$12,4,FALSE),IF(Y$78="once",VLOOKUP($V80,Significance!$H$13:$K$23,4,FALSE),IF(Y$78="twice",VLOOKUP($V80,Significance!$H$24:$K$34,4,FALSE))))</f>
         <v>ns</v>
       </c>
     </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="1"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
       <c r="F81" s="3" t="s">
         <v>4</v>
       </c>
@@ -3871,25 +4056,25 @@
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="5"/>
-      <c r="K81" s="32">
+      <c r="K81" s="28">
         <v>5.5030000000000001</v>
       </c>
-      <c r="L81" s="32">
+      <c r="L81" s="28">
         <v>6.6920000000000002</v>
       </c>
-      <c r="M81" s="32">
+      <c r="M81" s="28">
         <v>7.1479999999999997</v>
       </c>
-      <c r="N81" s="33"/>
-      <c r="O81" s="32"/>
-      <c r="P81" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q81" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="R81" s="34" t="s">
-        <v>84</v>
+      <c r="N81" s="29"/>
+      <c r="O81" s="28"/>
+      <c r="P81" s="26">
+        <v>0.37829927598619539</v>
+      </c>
+      <c r="Q81" s="26">
+        <v>0.45632384004622317</v>
+      </c>
+      <c r="R81" s="26">
+        <v>0.4844306313932415</v>
       </c>
       <c r="S81" s="1"/>
       <c r="V81" s="3" t="s">
@@ -3908,11 +4093,11 @@
         <v>ns</v>
       </c>
     </row>
-    <row r="82" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="1"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
       <c r="F82" s="3" t="s">
         <v>5</v>
       </c>
@@ -3922,25 +4107,25 @@
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="5"/>
-      <c r="K82" s="32">
+      <c r="K82" s="28">
         <v>5.3310000000000004</v>
       </c>
-      <c r="L82" s="32">
+      <c r="L82" s="28">
         <v>5.6669999999999998</v>
       </c>
-      <c r="M82" s="32">
+      <c r="M82" s="28">
         <v>4.9340000000000002</v>
       </c>
-      <c r="N82" s="33"/>
-      <c r="O82" s="32"/>
-      <c r="P82" s="32">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="Q82" s="32">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="R82" s="32">
-        <v>0.41599999999999998</v>
+      <c r="N82" s="29"/>
+      <c r="O82" s="28"/>
+      <c r="P82" s="26">
+        <v>0.33594288372240294</v>
+      </c>
+      <c r="Q82" s="26">
+        <v>0.35773574521851498</v>
+      </c>
+      <c r="R82" s="26">
+        <v>0.30316099036946637</v>
       </c>
       <c r="S82" s="1"/>
       <c r="V82" s="3" t="s">
@@ -3948,7 +4133,7 @@
       </c>
       <c r="W82" t="str">
         <f>IF(W$78="none",VLOOKUP($V82,Significance!$H$2:$K$12,4,FALSE),IF(W$78="once",VLOOKUP($V82,Significance!$H$13:$K$23,4,FALSE),IF(W$78="twice",VLOOKUP($V82,Significance!$H$24:$K$34,4,FALSE))))</f>
-        <v>*</v>
+        <v>ns</v>
       </c>
       <c r="X82" t="str">
         <f>IF(X$78="none",VLOOKUP($V82,Significance!$H$2:$K$12,4,FALSE),IF(X$78="once",VLOOKUP($V82,Significance!$H$13:$K$23,4,FALSE),IF(X$78="twice",VLOOKUP($V82,Significance!$H$24:$K$34,4,FALSE))))</f>
@@ -3959,11 +4144,11 @@
         <v>**</v>
       </c>
     </row>
-    <row r="83" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="1"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
       <c r="F83" s="3" t="s">
         <v>6</v>
       </c>
@@ -3973,25 +4158,25 @@
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="5"/>
-      <c r="K83" s="32">
+      <c r="K83" s="28">
         <v>6.915</v>
       </c>
-      <c r="L83" s="32">
+      <c r="L83" s="28">
         <v>6.915</v>
       </c>
-      <c r="M83" s="32">
+      <c r="M83" s="28">
         <v>6.915</v>
       </c>
-      <c r="N83" s="33"/>
-      <c r="O83" s="32"/>
-      <c r="P83" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q83" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="R83" s="34" t="s">
-        <v>82</v>
+      <c r="N83" s="29"/>
+      <c r="O83" s="28"/>
+      <c r="P83" s="26">
+        <v>0.45624415287115799</v>
+      </c>
+      <c r="Q83" s="26">
+        <v>0.45624415287115799</v>
+      </c>
+      <c r="R83" s="26">
+        <v>0.45624415287115799</v>
       </c>
       <c r="S83" s="1"/>
       <c r="V83" s="3" t="s">
@@ -4010,24 +4195,24 @@
         <v>ns</v>
       </c>
     </row>
-    <row r="84" spans="2:25" ht="5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="1"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="23"/>
-      <c r="K84" s="36"/>
-      <c r="L84" s="36"/>
-      <c r="M84" s="36"/>
-      <c r="N84" s="37"/>
-      <c r="O84" s="36"/>
-      <c r="P84" s="36"/>
-      <c r="Q84" s="36"/>
-      <c r="R84" s="36"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="30"/>
+      <c r="N84" s="31"/>
+      <c r="O84" s="30"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="19"/>
       <c r="S84" s="1"/>
       <c r="V84" s="3" t="s">
         <v>6</v>
@@ -4045,26 +4230,26 @@
         <v>**</v>
       </c>
     </row>
-    <row r="85" spans="2:25" ht="5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="1"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="5"/>
       <c r="I85" s="4"/>
       <c r="J85" s="5"/>
-      <c r="K85" s="32"/>
-      <c r="L85" s="32"/>
-      <c r="M85" s="32"/>
-      <c r="N85" s="33"/>
-      <c r="O85" s="32"/>
-      <c r="P85" s="32"/>
-      <c r="Q85" s="32"/>
-      <c r="R85" s="32"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="28"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="29"/>
+      <c r="O85" s="28"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
       <c r="S85" s="1"/>
-      <c r="V85" s="22"/>
+      <c r="V85" s="18"/>
       <c r="W85" t="e">
         <f>IF(W$78="none",VLOOKUP($V85,Significance!$H$2:$K$12,4,FALSE),IF(W$78="once",VLOOKUP($V85,Significance!$H$13:$K$23,4,FALSE),IF(W$78="twice",VLOOKUP($V85,Significance!$H$24:$K$34,4,FALSE))))</f>
         <v>#N/A</v>
@@ -4078,13 +4263,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="1"/>
-      <c r="C86" s="16" t="s">
+      <c r="C86" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
       <c r="F86" s="3" t="s">
         <v>7</v>
       </c>
@@ -4094,25 +4279,25 @@
       </c>
       <c r="I86" s="4"/>
       <c r="J86" s="5"/>
-      <c r="K86" s="32">
+      <c r="K86" s="28">
         <v>5.6859999999999999</v>
       </c>
-      <c r="L86" s="32">
+      <c r="L86" s="28">
         <v>6.1059999999999999</v>
       </c>
-      <c r="M86" s="32">
+      <c r="M86" s="28">
         <v>6.1829999999999998</v>
       </c>
-      <c r="N86" s="33"/>
-      <c r="O86" s="32"/>
-      <c r="P86" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q86" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="R86" s="34" t="s">
-        <v>87</v>
+      <c r="N86" s="29"/>
+      <c r="O86" s="28"/>
+      <c r="P86" s="26">
+        <v>0.38344495059684569</v>
+      </c>
+      <c r="Q86" s="26">
+        <v>0.40547970103667658</v>
+      </c>
+      <c r="R86" s="26">
+        <v>0.40884974513999151</v>
       </c>
       <c r="S86" s="1"/>
       <c r="V86" s="3"/>
@@ -4129,11 +4314,11 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="1"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
       <c r="F87" s="3" t="s">
         <v>10</v>
       </c>
@@ -4143,25 +4328,25 @@
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="5"/>
-      <c r="K87" s="32">
+      <c r="K87" s="28">
         <v>6.915</v>
       </c>
-      <c r="L87" s="32">
+      <c r="L87" s="28">
         <v>6.915</v>
       </c>
-      <c r="M87" s="32">
+      <c r="M87" s="28">
         <v>6.915</v>
       </c>
-      <c r="N87" s="33"/>
-      <c r="O87" s="32"/>
-      <c r="P87" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q87" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="R87" s="34" t="s">
-        <v>82</v>
+      <c r="N87" s="29"/>
+      <c r="O87" s="28"/>
+      <c r="P87" s="26">
+        <v>0.45624415287115799</v>
+      </c>
+      <c r="Q87" s="26">
+        <v>0.45624415287115799</v>
+      </c>
+      <c r="R87" s="26">
+        <v>0.45624415287115799</v>
       </c>
       <c r="S87" s="1"/>
       <c r="V87" s="3" t="s">
@@ -4180,11 +4365,11 @@
         <v>*</v>
       </c>
     </row>
-    <row r="88" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="1"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
       <c r="F88" s="3" t="s">
         <v>21</v>
       </c>
@@ -4194,25 +4379,25 @@
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="5"/>
-      <c r="K88" s="32">
+      <c r="K88" s="28">
         <v>5.6859999999999999</v>
       </c>
-      <c r="L88" s="32">
+      <c r="L88" s="28">
         <v>6.1059999999999999</v>
       </c>
-      <c r="M88" s="32">
+      <c r="M88" s="28">
         <v>6.1829999999999998</v>
       </c>
-      <c r="N88" s="33"/>
-      <c r="O88" s="32"/>
-      <c r="P88" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q88" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="R88" s="34" t="s">
-        <v>87</v>
+      <c r="N88" s="29"/>
+      <c r="O88" s="28"/>
+      <c r="P88" s="26">
+        <v>0.38344495059684569</v>
+      </c>
+      <c r="Q88" s="26">
+        <v>0.40547970103667658</v>
+      </c>
+      <c r="R88" s="26">
+        <v>0.40884974513999151</v>
       </c>
       <c r="S88" s="1"/>
       <c r="V88" s="3" t="s">
@@ -4231,24 +4416,24 @@
         <v>**</v>
       </c>
     </row>
-    <row r="89" spans="2:25" ht="5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="1"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="36"/>
-      <c r="N89" s="37"/>
-      <c r="O89" s="36"/>
-      <c r="P89" s="36"/>
-      <c r="Q89" s="36"/>
-      <c r="R89" s="36"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="30"/>
+      <c r="M89" s="30"/>
+      <c r="N89" s="31"/>
+      <c r="O89" s="30"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="19"/>
       <c r="S89" s="1"/>
       <c r="V89" s="3" t="s">
         <v>21</v>
@@ -4266,26 +4451,26 @@
         <v>*</v>
       </c>
     </row>
-    <row r="90" spans="2:25" ht="5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="1"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="5"/>
       <c r="I90" s="4"/>
       <c r="J90" s="5"/>
-      <c r="K90" s="32"/>
-      <c r="L90" s="32"/>
-      <c r="M90" s="32"/>
-      <c r="N90" s="33"/>
-      <c r="O90" s="32"/>
-      <c r="P90" s="32"/>
-      <c r="Q90" s="32"/>
-      <c r="R90" s="32"/>
+      <c r="K90" s="28"/>
+      <c r="L90" s="28"/>
+      <c r="M90" s="28"/>
+      <c r="N90" s="29"/>
+      <c r="O90" s="28"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
       <c r="S90" s="1"/>
-      <c r="V90" s="22"/>
+      <c r="V90" s="18"/>
       <c r="W90" t="e">
         <f>IF(W$78="none",VLOOKUP($V90,Significance!$H$2:$K$12,4,FALSE),IF(W$78="once",VLOOKUP($V90,Significance!$H$13:$K$23,4,FALSE),IF(W$78="twice",VLOOKUP($V90,Significance!$H$24:$K$34,4,FALSE))))</f>
         <v>#N/A</v>
@@ -4299,13 +4484,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="1"/>
-      <c r="C91" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D91" s="17"/>
-      <c r="E91" s="18"/>
+      <c r="C91" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D91" s="13"/>
+      <c r="E91" s="14"/>
       <c r="F91" s="3" t="s">
         <v>7</v>
       </c>
@@ -4315,25 +4500,25 @@
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="5"/>
-      <c r="K91" s="32">
+      <c r="K91" s="28">
         <v>5.9119999999999999</v>
       </c>
-      <c r="L91" s="32">
+      <c r="L91" s="28">
         <v>5.9119999999999999</v>
       </c>
-      <c r="M91" s="32">
+      <c r="M91" s="28">
         <v>5.9119999999999999</v>
       </c>
-      <c r="N91" s="33"/>
-      <c r="O91" s="32"/>
-      <c r="P91" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q91" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="R91" s="32" t="s">
-        <v>88</v>
+      <c r="N91" s="29"/>
+      <c r="O91" s="28"/>
+      <c r="P91" s="26">
+        <v>0.39515931892694239</v>
+      </c>
+      <c r="Q91" s="26">
+        <v>0.39515931892694239</v>
+      </c>
+      <c r="R91" s="26">
+        <v>0.39515931892694239</v>
       </c>
       <c r="S91" s="1"/>
       <c r="V91" s="3"/>
@@ -4350,11 +4535,11 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="1"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="14"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="12"/>
       <c r="F92" s="3" t="s">
         <v>8</v>
       </c>
@@ -4364,25 +4549,25 @@
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="5"/>
-      <c r="K92" s="32">
+      <c r="K92" s="28">
         <v>5.5030000000000001</v>
       </c>
-      <c r="L92" s="32">
+      <c r="L92" s="28">
         <v>5.5030000000000001</v>
       </c>
-      <c r="M92" s="32">
+      <c r="M92" s="28">
         <v>5.5030000000000001</v>
       </c>
-      <c r="N92" s="33"/>
-      <c r="O92" s="32"/>
-      <c r="P92" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q92" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="R92" s="32" t="s">
-        <v>89</v>
+      <c r="N92" s="29"/>
+      <c r="O92" s="28"/>
+      <c r="P92" s="26">
+        <v>0.37829927598619539</v>
+      </c>
+      <c r="Q92" s="26">
+        <v>0.37829927598619539</v>
+      </c>
+      <c r="R92" s="26">
+        <v>0.37829927598619539</v>
       </c>
       <c r="S92" s="1"/>
       <c r="V92" s="3" t="s">
@@ -4401,63 +4586,63 @@
         <v>**</v>
       </c>
     </row>
-    <row r="93" spans="2:25" ht="5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="1"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="23"/>
-      <c r="K93" s="36"/>
-      <c r="L93" s="36"/>
-      <c r="M93" s="36"/>
-      <c r="N93" s="37"/>
-      <c r="O93" s="36"/>
-      <c r="P93" s="36"/>
-      <c r="Q93" s="36"/>
-      <c r="R93" s="36"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="30"/>
+      <c r="L93" s="30"/>
+      <c r="M93" s="30"/>
+      <c r="N93" s="31"/>
+      <c r="O93" s="30"/>
+      <c r="P93" s="19"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19"/>
       <c r="S93" s="1"/>
       <c r="V93" s="3" t="s">
         <v>45</v>
       </c>
       <c r="W93" t="str">
         <f>IF(W$78="none",VLOOKUP($V93,Significance!$H$2:$K$12,4,FALSE),IF(W$78="once",VLOOKUP($V93,Significance!$H$13:$K$23,4,FALSE),IF(W$78="twice",VLOOKUP($V93,Significance!$H$24:$K$34,4,FALSE))))</f>
-        <v>*</v>
+        <v>ns</v>
       </c>
       <c r="X93" t="str">
         <f>IF(X$78="none",VLOOKUP($V93,Significance!$H$2:$K$12,4,FALSE),IF(X$78="once",VLOOKUP($V93,Significance!$H$13:$K$23,4,FALSE),IF(X$78="twice",VLOOKUP($V93,Significance!$H$24:$K$34,4,FALSE))))</f>
-        <v>*</v>
+        <v>ns</v>
       </c>
       <c r="Y93" t="str">
         <f>IF(Y$78="none",VLOOKUP($V93,Significance!$H$2:$K$12,4,FALSE),IF(Y$78="once",VLOOKUP($V93,Significance!$H$13:$K$23,4,FALSE),IF(Y$78="twice",VLOOKUP($V93,Significance!$H$24:$K$34,4,FALSE))))</f>
-        <v>*</v>
-      </c>
-    </row>
-    <row r="94" spans="2:25" ht="5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>ns</v>
+      </c>
+    </row>
+    <row r="94" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="1"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="5"/>
       <c r="I94" s="4"/>
       <c r="J94" s="5"/>
-      <c r="K94" s="32"/>
-      <c r="L94" s="32"/>
-      <c r="M94" s="32"/>
-      <c r="N94" s="33"/>
-      <c r="O94" s="32"/>
-      <c r="P94" s="32"/>
-      <c r="Q94" s="32"/>
-      <c r="R94" s="32"/>
+      <c r="K94" s="28"/>
+      <c r="L94" s="28"/>
+      <c r="M94" s="28"/>
+      <c r="N94" s="29"/>
+      <c r="O94" s="28"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
       <c r="S94" s="1"/>
-      <c r="V94" s="22"/>
-    </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="V94" s="18"/>
+    </row>
+    <row r="95" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -4466,33 +4651,33 @@
         <v>25</v>
       </c>
       <c r="G95" s="3"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="19"/>
-      <c r="K95" s="32">
+      <c r="H95" s="15"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="28">
         <v>4.0129999999999999</v>
       </c>
-      <c r="L95" s="32">
+      <c r="L95" s="28">
         <v>4.0129999999999999</v>
       </c>
-      <c r="M95" s="32">
+      <c r="M95" s="28">
         <v>4.0129999999999999</v>
       </c>
-      <c r="N95" s="33"/>
-      <c r="O95" s="32"/>
-      <c r="P95" s="32">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="Q95" s="32">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="R95" s="32">
-        <v>0.29599999999999999</v>
+      <c r="N95" s="29"/>
+      <c r="O95" s="28"/>
+      <c r="P95" s="26">
+        <v>0.24360000000000001</v>
+      </c>
+      <c r="Q95" s="26">
+        <v>0.24360000000000001</v>
+      </c>
+      <c r="R95" s="26">
+        <v>0.24360000000000001</v>
       </c>
       <c r="S95" s="1"/>
       <c r="V95" s="3"/>
     </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -4515,16 +4700,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="2:28" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="29"/>
-      <c r="J97" s="29"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
@@ -4535,7 +4720,7 @@
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
     </row>
-    <row r="98" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -4564,7 +4749,7 @@
         <v>5.2779999999999996</v>
       </c>
       <c r="G99" s="1"/>
-      <c r="H99" s="28" t="s">
+      <c r="H99" s="24" t="s">
         <v>24</v>
       </c>
       <c r="I99" s="1"/>
@@ -4587,8 +4772,8 @@
       <c r="F100" s="5">
         <v>6.915</v>
       </c>
-      <c r="G100" s="27"/>
-      <c r="H100" s="28" t="s">
+      <c r="G100" s="23"/>
+      <c r="H100" s="24" t="s">
         <v>22</v>
       </c>
       <c r="I100" s="1"/>
@@ -4602,26 +4787,29 @@
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
-      <c r="V100" s="31">
-        <v>0.57649293330593465</v>
-      </c>
-      <c r="W100" s="31">
-        <v>0.57649293330593465</v>
-      </c>
-      <c r="X100" s="31">
-        <v>0.57649293330593465</v>
+      <c r="U100" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V100" s="26">
+        <v>0.45624415287115799</v>
+      </c>
+      <c r="W100" s="26">
+        <v>0.45624415287115799</v>
+      </c>
+      <c r="X100" s="26">
+        <v>0.45624415287115799</v>
       </c>
       <c r="Z100" t="str">
         <f>FIXED(V100,3)</f>
-        <v>0.576</v>
+        <v>0.456</v>
       </c>
       <c r="AA100" t="str">
-        <f t="shared" ref="AA100:AB115" si="0">FIXED(W100,3)</f>
-        <v>0.576</v>
+        <f t="shared" ref="AA100:AB103" si="0">FIXED(W100,3)</f>
+        <v>0.456</v>
       </c>
       <c r="AB100" t="str">
         <f t="shared" si="0"/>
-        <v>0.576</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="101" spans="2:28" x14ac:dyDescent="0.35">
@@ -4632,8 +4820,8 @@
       <c r="F101" s="5">
         <v>0.56200000000000006</v>
       </c>
-      <c r="G101" s="27"/>
-      <c r="H101" s="28" t="s">
+      <c r="G101" s="23"/>
+      <c r="H101" s="24" t="s">
         <v>23</v>
       </c>
       <c r="I101" s="1"/>
@@ -4647,26 +4835,29 @@
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
-      <c r="V101" s="31">
-        <v>0.41858931583344405</v>
-      </c>
-      <c r="W101" s="31">
-        <v>0.47568581340023613</v>
-      </c>
-      <c r="X101" s="31">
-        <v>0.47301433468144799</v>
+      <c r="U101" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V101" s="26">
+        <v>0.31412111177249757</v>
+      </c>
+      <c r="W101" s="26">
+        <v>0.36461563082331594</v>
+      </c>
+      <c r="X101" s="26">
+        <v>0.36119059214602317</v>
       </c>
       <c r="Z101" t="str">
-        <f t="shared" ref="Z101:Z118" si="1">FIXED(V101,3)</f>
-        <v>0.419</v>
+        <f t="shared" ref="Z101:Z103" si="1">FIXED(V101,3)</f>
+        <v>0.314</v>
       </c>
       <c r="AA101" t="str">
         <f t="shared" si="0"/>
-        <v>0.476</v>
+        <v>0.365</v>
       </c>
       <c r="AB101" t="str">
         <f t="shared" si="0"/>
-        <v>0.473</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="102" spans="2:28" x14ac:dyDescent="0.35">
@@ -4688,26 +4879,29 @@
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
-      <c r="V102" s="31">
-        <v>0.45288689610474597</v>
-      </c>
-      <c r="W102" s="31">
-        <v>0.3777184707131051</v>
-      </c>
-      <c r="X102" s="31">
-        <v>0.41096876725165948</v>
+      <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="26">
+        <v>0.33594288372240294</v>
+      </c>
+      <c r="W102" s="26">
+        <v>0.26207600921530494</v>
+      </c>
+      <c r="X102" s="26">
+        <v>0.29897723023340483</v>
       </c>
       <c r="Z102" t="str">
         <f t="shared" si="1"/>
-        <v>0.453</v>
+        <v>0.336</v>
       </c>
       <c r="AA102" t="str">
         <f t="shared" si="0"/>
-        <v>0.378</v>
+        <v>0.262</v>
       </c>
       <c r="AB102" t="str">
         <f t="shared" si="0"/>
-        <v>0.411</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="103" spans="2:28" x14ac:dyDescent="0.35">
@@ -4716,7 +4910,7 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -4731,26 +4925,29 @@
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
-      <c r="V103" s="31">
-        <v>0.51004853403743244</v>
-      </c>
-      <c r="W103" s="31">
-        <v>0.58249386248519175</v>
-      </c>
-      <c r="X103" s="31">
-        <v>0.60877543307909732</v>
+      <c r="U103" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V103" s="26">
+        <v>0.37829927598619539</v>
+      </c>
+      <c r="W103" s="26">
+        <v>0.45632384004622317</v>
+      </c>
+      <c r="X103" s="26">
+        <v>0.4844306313932415</v>
       </c>
       <c r="Z103" t="str">
         <f t="shared" si="1"/>
-        <v>0.510</v>
+        <v>0.378</v>
       </c>
       <c r="AA103" t="str">
         <f t="shared" si="0"/>
-        <v>0.582</v>
+        <v>0.456</v>
       </c>
       <c r="AB103" t="str">
         <f t="shared" si="0"/>
-        <v>0.609</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="104" spans="2:28" x14ac:dyDescent="0.35">
@@ -4759,7 +4956,7 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -4774,9 +4971,30 @@
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
-      <c r="V104" s="31"/>
-      <c r="W104" s="31"/>
-      <c r="X104" s="31"/>
+      <c r="U104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V104" s="26">
+        <v>0.33594288372240294</v>
+      </c>
+      <c r="W104" s="26">
+        <v>0.35773574521851498</v>
+      </c>
+      <c r="X104" s="26">
+        <v>0.30316099036946637</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" ref="Z104:Z118" si="2">FIXED(V104,3)</f>
+        <v>0.336</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" ref="AA104:AA118" si="3">FIXED(W104,3)</f>
+        <v>0.358</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" ref="AB104:AB118" si="4">FIXED(X104,3)</f>
+        <v>0.303</v>
+      </c>
     </row>
     <row r="105" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B105" s="1"/>
@@ -4784,7 +5002,7 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -4799,26 +5017,29 @@
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
-      <c r="V105" s="31">
-        <v>0.45288689610474597</v>
-      </c>
-      <c r="W105" s="31">
-        <v>0.47384986205086177</v>
-      </c>
-      <c r="X105" s="31">
-        <v>0.41642889129409733</v>
+      <c r="U105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V105" s="26">
+        <v>0.45624415287115799</v>
+      </c>
+      <c r="W105" s="26">
+        <v>0.45624415287115799</v>
+      </c>
+      <c r="X105" s="26">
+        <v>0.45624415287115799</v>
       </c>
       <c r="Z105" t="str">
-        <f t="shared" si="1"/>
-        <v>0.453</v>
+        <f t="shared" si="2"/>
+        <v>0.456</v>
       </c>
       <c r="AA105" t="str">
-        <f t="shared" si="0"/>
-        <v>0.474</v>
+        <f t="shared" si="3"/>
+        <v>0.456</v>
       </c>
       <c r="AB105" t="str">
-        <f t="shared" si="0"/>
-        <v>0.416</v>
+        <f t="shared" si="4"/>
+        <v>0.456</v>
       </c>
     </row>
     <row r="106" spans="2:28" x14ac:dyDescent="0.35">
@@ -4840,26 +5061,21 @@
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
-      <c r="V106" s="31">
-        <v>0.57649293330593465</v>
-      </c>
-      <c r="W106" s="31">
-        <v>0.57649293330593465</v>
-      </c>
-      <c r="X106" s="31">
-        <v>0.57649293330593465</v>
-      </c>
+      <c r="U106" s="18"/>
+      <c r="V106" s="19"/>
+      <c r="W106" s="19"/>
+      <c r="X106" s="19"/>
       <c r="Z106" t="str">
-        <f t="shared" si="1"/>
-        <v>0.576</v>
+        <f t="shared" si="2"/>
+        <v>0.000</v>
       </c>
       <c r="AA106" t="str">
-        <f t="shared" si="0"/>
-        <v>0.576</v>
+        <f t="shared" si="3"/>
+        <v>0.000</v>
       </c>
       <c r="AB106" t="str">
-        <f t="shared" si="0"/>
-        <v>0.576</v>
+        <f t="shared" si="4"/>
+        <v>0.000</v>
       </c>
     </row>
     <row r="107" spans="2:28" x14ac:dyDescent="0.35">
@@ -4881,9 +5097,22 @@
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
-      <c r="V107" s="31"/>
-      <c r="W107" s="31"/>
-      <c r="X107" s="31"/>
+      <c r="U107" s="3"/>
+      <c r="V107" s="5"/>
+      <c r="W107" s="5"/>
+      <c r="X107" s="5"/>
+      <c r="Z107" t="str">
+        <f t="shared" si="2"/>
+        <v>0.000</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="3"/>
+        <v>0.000</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="4"/>
+        <v>0.000</v>
+      </c>
     </row>
     <row r="108" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B108" s="1"/>
@@ -4904,9 +5133,30 @@
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
-      <c r="V108" s="31"/>
-      <c r="W108" s="31"/>
-      <c r="X108" s="31"/>
+      <c r="U108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V108" s="26">
+        <v>0.38344495059684569</v>
+      </c>
+      <c r="W108" s="26">
+        <v>0.40547970103667658</v>
+      </c>
+      <c r="X108" s="26">
+        <v>0.40884974513999151</v>
+      </c>
+      <c r="Z108" t="str">
+        <f t="shared" si="2"/>
+        <v>0.383</v>
+      </c>
+      <c r="AA108" t="str">
+        <f t="shared" si="3"/>
+        <v>0.405</v>
+      </c>
+      <c r="AB108" t="str">
+        <f t="shared" si="4"/>
+        <v>0.409</v>
+      </c>
     </row>
     <row r="109" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B109" s="1"/>
@@ -4927,26 +5177,29 @@
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
-      <c r="V109" s="31">
-        <v>0.51177127699323144</v>
-      </c>
-      <c r="W109" s="31">
-        <v>0.52918314313960957</v>
-      </c>
-      <c r="X109" s="31">
-        <v>0.53158147392943433</v>
+      <c r="U109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V109" s="26">
+        <v>0.45624415287115799</v>
+      </c>
+      <c r="W109" s="26">
+        <v>0.45624415287115799</v>
+      </c>
+      <c r="X109" s="26">
+        <v>0.45624415287115799</v>
       </c>
       <c r="Z109" t="str">
-        <f t="shared" si="1"/>
-        <v>0.512</v>
+        <f t="shared" si="2"/>
+        <v>0.456</v>
       </c>
       <c r="AA109" t="str">
-        <f t="shared" si="0"/>
-        <v>0.529</v>
+        <f t="shared" si="3"/>
+        <v>0.456</v>
       </c>
       <c r="AB109" t="str">
-        <f t="shared" si="0"/>
-        <v>0.532</v>
+        <f t="shared" si="4"/>
+        <v>0.456</v>
       </c>
     </row>
     <row r="110" spans="2:28" x14ac:dyDescent="0.35">
@@ -4968,26 +5221,29 @@
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
-      <c r="V110" s="31">
-        <v>0.57649293330593465</v>
-      </c>
-      <c r="W110" s="31">
-        <v>0.57649293330593465</v>
-      </c>
-      <c r="X110" s="31">
-        <v>0.57649293330593465</v>
+      <c r="U110" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V110" s="26">
+        <v>0.38344495059684569</v>
+      </c>
+      <c r="W110" s="26">
+        <v>0.40547970103667658</v>
+      </c>
+      <c r="X110" s="26">
+        <v>0.40884974513999151</v>
       </c>
       <c r="Z110" t="str">
-        <f t="shared" si="1"/>
-        <v>0.576</v>
+        <f t="shared" si="2"/>
+        <v>0.383</v>
       </c>
       <c r="AA110" t="str">
-        <f t="shared" si="0"/>
-        <v>0.576</v>
+        <f t="shared" si="3"/>
+        <v>0.405</v>
       </c>
       <c r="AB110" t="str">
-        <f t="shared" si="0"/>
-        <v>0.576</v>
+        <f t="shared" si="4"/>
+        <v>0.409</v>
       </c>
     </row>
     <row r="111" spans="2:28" ht="17.5" x14ac:dyDescent="0.35">
@@ -4995,10 +5251,10 @@
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="12" t="s">
+      <c r="F111" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G111" s="12"/>
+      <c r="G111" s="11"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -5011,26 +5267,21 @@
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
-      <c r="V111" s="31">
-        <v>0.51177127699323144</v>
-      </c>
-      <c r="W111" s="31">
-        <v>0.52918314313960957</v>
-      </c>
-      <c r="X111" s="31">
-        <v>0.53158147392943433</v>
-      </c>
+      <c r="U111" s="18"/>
+      <c r="V111" s="19"/>
+      <c r="W111" s="19"/>
+      <c r="X111" s="19"/>
       <c r="Z111" t="str">
-        <f t="shared" si="1"/>
-        <v>0.512</v>
+        <f t="shared" si="2"/>
+        <v>0.000</v>
       </c>
       <c r="AA111" t="str">
-        <f t="shared" si="0"/>
-        <v>0.529</v>
+        <f t="shared" si="3"/>
+        <v>0.000</v>
       </c>
       <c r="AB111" t="str">
-        <f t="shared" si="0"/>
-        <v>0.532</v>
+        <f t="shared" si="4"/>
+        <v>0.000</v>
       </c>
     </row>
     <row r="112" spans="2:28" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5052,9 +5303,22 @@
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="9"/>
-      <c r="V112" s="31"/>
-      <c r="W112" s="31"/>
-      <c r="X112" s="31"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="5"/>
+      <c r="W112" s="5"/>
+      <c r="X112" s="5"/>
+      <c r="Z112" t="str">
+        <f t="shared" si="2"/>
+        <v>0.000</v>
+      </c>
+      <c r="AA112" t="str">
+        <f t="shared" si="3"/>
+        <v>0.000</v>
+      </c>
+      <c r="AB112" t="str">
+        <f t="shared" si="4"/>
+        <v>0.000</v>
+      </c>
     </row>
     <row r="113" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B113" s="1"/>
@@ -5075,9 +5339,30 @@
       <c r="Q113" s="8"/>
       <c r="R113" s="8"/>
       <c r="S113" s="9"/>
-      <c r="V113" s="31"/>
-      <c r="W113" s="31"/>
-      <c r="X113" s="31"/>
+      <c r="U113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V113" s="26">
+        <v>0.39515931892694239</v>
+      </c>
+      <c r="W113" s="26">
+        <v>0.39515931892694239</v>
+      </c>
+      <c r="X113" s="26">
+        <v>0.39515931892694239</v>
+      </c>
+      <c r="Z113" t="str">
+        <f t="shared" si="2"/>
+        <v>0.395</v>
+      </c>
+      <c r="AA113" t="str">
+        <f t="shared" si="3"/>
+        <v>0.395</v>
+      </c>
+      <c r="AB113" t="str">
+        <f t="shared" si="4"/>
+        <v>0.395</v>
+      </c>
     </row>
     <row r="114" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B114" s="1"/>
@@ -5089,42 +5374,45 @@
       <c r="H114" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
-      <c r="K114" s="11" t="s">
+      <c r="I114" s="15"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L114" s="11"/>
-      <c r="M114" s="11"/>
-      <c r="N114" s="11"/>
-      <c r="O114" s="11"/>
-      <c r="P114" s="11"/>
-      <c r="Q114" s="11"/>
-      <c r="R114" s="11"/>
+      <c r="L114" s="40"/>
+      <c r="M114" s="40"/>
+      <c r="N114" s="40"/>
+      <c r="O114" s="40"/>
+      <c r="P114" s="40"/>
+      <c r="Q114" s="40"/>
+      <c r="R114" s="40"/>
       <c r="S114" s="1"/>
-      <c r="V114" s="31">
-        <v>0.52067815582742838</v>
-      </c>
-      <c r="W114" s="31">
-        <v>0.52067815582742838</v>
-      </c>
-      <c r="X114" s="31">
-        <v>0.52067815582742838</v>
+      <c r="U114" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V114" s="26">
+        <v>0.37829927598619539</v>
+      </c>
+      <c r="W114" s="26">
+        <v>0.37829927598619539</v>
+      </c>
+      <c r="X114" s="26">
+        <v>0.37829927598619539</v>
       </c>
       <c r="Z114" t="str">
-        <f t="shared" si="1"/>
-        <v>0.521</v>
+        <f t="shared" si="2"/>
+        <v>0.378</v>
       </c>
       <c r="AA114" t="str">
-        <f t="shared" si="0"/>
-        <v>0.521</v>
+        <f t="shared" si="3"/>
+        <v>0.378</v>
       </c>
       <c r="AB114" t="str">
-        <f t="shared" si="0"/>
-        <v>0.521</v>
-      </c>
-    </row>
-    <row r="115" spans="2:28" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="115" spans="2:28" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -5134,41 +5422,36 @@
       <c r="H115" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I115" s="20"/>
-      <c r="J115" s="19"/>
-      <c r="K115" s="11" t="s">
+      <c r="I115" s="16"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="L115" s="11"/>
-      <c r="M115" s="11"/>
-      <c r="N115" s="26"/>
-      <c r="O115" s="19"/>
-      <c r="P115" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q115" s="11"/>
-      <c r="R115" s="11"/>
+      <c r="L115" s="40"/>
+      <c r="M115" s="40"/>
+      <c r="N115" s="22"/>
+      <c r="O115" s="15"/>
+      <c r="P115" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q115" s="40"/>
+      <c r="R115" s="40"/>
       <c r="S115" s="1"/>
-      <c r="V115" s="31">
-        <v>0.51004853403743244</v>
-      </c>
-      <c r="W115" s="31">
-        <v>0.51004853403743244</v>
-      </c>
-      <c r="X115" s="31">
-        <v>0.51004853403743244</v>
-      </c>
+      <c r="U115" s="18"/>
+      <c r="V115" s="19"/>
+      <c r="W115" s="19"/>
+      <c r="X115" s="19"/>
       <c r="Z115" t="str">
-        <f t="shared" si="1"/>
-        <v>0.510</v>
+        <f t="shared" si="2"/>
+        <v>0.000</v>
       </c>
       <c r="AA115" t="str">
-        <f t="shared" si="0"/>
-        <v>0.510</v>
+        <f t="shared" si="3"/>
+        <v>0.000</v>
       </c>
       <c r="AB115" t="str">
-        <f t="shared" si="0"/>
-        <v>0.510</v>
+        <f t="shared" si="4"/>
+        <v>0.000</v>
       </c>
     </row>
     <row r="116" spans="2:28" x14ac:dyDescent="0.35">
@@ -5183,8 +5466,8 @@
       <c r="H116" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I116" s="20"/>
-      <c r="J116" s="19"/>
+      <c r="I116" s="16"/>
+      <c r="J116" s="15"/>
       <c r="K116" s="10" t="s">
         <v>18</v>
       </c>
@@ -5194,8 +5477,8 @@
       <c r="M116" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N116" s="20"/>
-      <c r="O116" s="19"/>
+      <c r="N116" s="16"/>
+      <c r="O116" s="15"/>
       <c r="P116" s="10" t="s">
         <v>18</v>
       </c>
@@ -5206,19 +5489,32 @@
         <v>15</v>
       </c>
       <c r="S116" s="1"/>
-      <c r="V116" s="31"/>
-      <c r="W116" s="31"/>
-      <c r="X116" s="31"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="5"/>
+      <c r="W116" s="5"/>
+      <c r="X116" s="5"/>
+      <c r="Z116" t="str">
+        <f t="shared" si="2"/>
+        <v>0.000</v>
+      </c>
+      <c r="AA116" t="str">
+        <f t="shared" si="3"/>
+        <v>0.000</v>
+      </c>
+      <c r="AB116" t="str">
+        <f t="shared" si="4"/>
+        <v>0.000</v>
+      </c>
     </row>
     <row r="117" spans="2:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="1"/>
-      <c r="C117" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D117" s="38"/>
-      <c r="E117" s="17"/>
+      <c r="C117" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D117" s="32"/>
+      <c r="E117" s="13"/>
       <c r="F117" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="5">
@@ -5226,38 +5522,59 @@
       </c>
       <c r="I117" s="4"/>
       <c r="J117" s="5"/>
-      <c r="K117" s="32">
+      <c r="K117" s="28">
         <v>5.3310000000000004</v>
       </c>
-      <c r="L117" s="32">
+      <c r="L117" s="28">
         <v>5.6669999999999998</v>
       </c>
-      <c r="M117" s="32">
+      <c r="M117" s="28">
         <v>4.9340000000000002</v>
       </c>
-      <c r="N117" s="33"/>
-      <c r="O117" s="32"/>
-      <c r="P117" s="32">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="Q117" s="32">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="R117" s="32">
-        <v>0.41599999999999998</v>
+      <c r="N117" s="29"/>
+      <c r="O117" s="28"/>
+      <c r="P117" s="28">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="Q117" s="28">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="R117" s="28">
+        <v>0.30299999999999999</v>
       </c>
       <c r="S117" s="1"/>
-      <c r="V117" s="31"/>
-      <c r="W117" s="31"/>
-      <c r="X117" s="31"/>
+      <c r="U117" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V117" s="5">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="W117" s="5">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="X117" s="5">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="Z117" t="str">
+        <f t="shared" si="2"/>
+        <v>0.296</v>
+      </c>
+      <c r="AA117" t="str">
+        <f t="shared" si="3"/>
+        <v>0.296</v>
+      </c>
+      <c r="AB117" t="str">
+        <f t="shared" si="4"/>
+        <v>0.296</v>
+      </c>
     </row>
     <row r="118" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B118" s="1"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="38"/>
-      <c r="E118" s="17"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="32"/>
+      <c r="E118" s="13"/>
       <c r="F118" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="5">
@@ -5265,56 +5582,50 @@
       </c>
       <c r="I118" s="4"/>
       <c r="J118" s="5"/>
-      <c r="K118" s="32">
+      <c r="K118" s="28">
         <v>5.3310000000000004</v>
       </c>
-      <c r="L118" s="32">
+      <c r="L118" s="28">
         <v>4.2919999999999998</v>
       </c>
-      <c r="M118" s="32">
+      <c r="M118" s="28">
         <v>4.8949999999999996</v>
       </c>
-      <c r="N118" s="33"/>
-      <c r="O118" s="32"/>
-      <c r="P118" s="32">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="Q118" s="32">
-        <v>0.378</v>
-      </c>
-      <c r="R118" s="32">
-        <v>0.41099999999999998</v>
+      <c r="N118" s="29"/>
+      <c r="O118" s="28"/>
+      <c r="P118" s="28">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="Q118" s="28">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="R118" s="28">
+        <v>0.29899999999999999</v>
       </c>
       <c r="S118" s="1"/>
-      <c r="V118" s="31">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="W118" s="31">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="X118" s="31">
-        <v>0.29599999999999999</v>
-      </c>
+      <c r="V118" s="27"/>
+      <c r="W118" s="27"/>
+      <c r="X118" s="27"/>
       <c r="Z118" t="str">
-        <f t="shared" si="1"/>
-        <v>0.296</v>
+        <f t="shared" si="2"/>
+        <v>0.000</v>
       </c>
       <c r="AA118" t="str">
-        <f t="shared" ref="AA118" si="2">FIXED(W118,3)</f>
-        <v>0.296</v>
+        <f t="shared" si="3"/>
+        <v>0.000</v>
       </c>
       <c r="AB118" t="str">
-        <f t="shared" ref="AB118" si="3">FIXED(X118,3)</f>
-        <v>0.296</v>
+        <f t="shared" si="4"/>
+        <v>0.000</v>
       </c>
     </row>
     <row r="119" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B119" s="1"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="38"/>
-      <c r="E119" s="17"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="13"/>
       <c r="F119" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="5">
@@ -5322,77 +5633,77 @@
       </c>
       <c r="I119" s="4"/>
       <c r="J119" s="5"/>
-      <c r="K119" s="32">
+      <c r="K119" s="28">
         <v>5.2779999999999996</v>
       </c>
-      <c r="L119" s="32">
+      <c r="L119" s="28">
         <v>5.8780000000000001</v>
       </c>
-      <c r="M119" s="32">
+      <c r="M119" s="28">
         <v>5.8049999999999997</v>
       </c>
-      <c r="N119" s="33"/>
-      <c r="O119" s="32"/>
-      <c r="P119" s="32">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="Q119" s="32">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="R119" s="32">
-        <v>0.47299999999999998</v>
+      <c r="N119" s="29"/>
+      <c r="O119" s="28"/>
+      <c r="P119" s="28">
+        <v>0.314</v>
+      </c>
+      <c r="Q119" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="R119" s="28">
+        <v>0.36099999999999999</v>
       </c>
       <c r="S119" s="1"/>
     </row>
     <row r="120" spans="2:28" ht="5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="1"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="21"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="23"/>
-      <c r="I120" s="24"/>
-      <c r="J120" s="23"/>
-      <c r="K120" s="36"/>
-      <c r="L120" s="36"/>
-      <c r="M120" s="36"/>
-      <c r="N120" s="37"/>
-      <c r="O120" s="36"/>
-      <c r="P120" s="36"/>
-      <c r="Q120" s="36"/>
-      <c r="R120" s="36"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="19"/>
+      <c r="K120" s="30"/>
+      <c r="L120" s="30"/>
+      <c r="M120" s="30"/>
+      <c r="N120" s="31"/>
+      <c r="O120" s="30"/>
+      <c r="P120" s="30"/>
+      <c r="Q120" s="30"/>
+      <c r="R120" s="30"/>
       <c r="S120" s="1"/>
     </row>
     <row r="121" spans="2:28" ht="5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="1"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="38"/>
-      <c r="E121" s="17"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="13"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="5"/>
       <c r="I121" s="4"/>
       <c r="J121" s="5"/>
-      <c r="K121" s="32"/>
-      <c r="L121" s="32"/>
-      <c r="M121" s="32"/>
-      <c r="N121" s="33"/>
-      <c r="O121" s="32"/>
-      <c r="P121" s="32"/>
-      <c r="Q121" s="32"/>
-      <c r="R121" s="32"/>
+      <c r="K121" s="28"/>
+      <c r="L121" s="28"/>
+      <c r="M121" s="28"/>
+      <c r="N121" s="29"/>
+      <c r="O121" s="28"/>
+      <c r="P121" s="28"/>
+      <c r="Q121" s="28"/>
+      <c r="R121" s="28"/>
       <c r="S121" s="1"/>
     </row>
     <row r="122" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B122" s="1"/>
-      <c r="C122" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D122" s="38"/>
-      <c r="E122" s="17"/>
+      <c r="C122" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D122" s="32"/>
+      <c r="E122" s="13"/>
       <c r="F122" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="5">
@@ -5400,33 +5711,33 @@
       </c>
       <c r="I122" s="4"/>
       <c r="J122" s="5"/>
-      <c r="K122" s="32">
+      <c r="K122" s="28">
         <v>6.915</v>
       </c>
-      <c r="L122" s="32">
+      <c r="L122" s="28">
         <v>6.915</v>
       </c>
-      <c r="M122" s="32">
+      <c r="M122" s="28">
         <v>6.915</v>
       </c>
-      <c r="N122" s="33"/>
-      <c r="O122" s="32"/>
-      <c r="P122" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q122" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="R122" s="34" t="s">
-        <v>82</v>
+      <c r="N122" s="29"/>
+      <c r="O122" s="28"/>
+      <c r="P122" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q122" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="R122" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="S122" s="1"/>
     </row>
     <row r="123" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B123" s="1"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="38"/>
-      <c r="E123" s="17"/>
+      <c r="C123" s="41"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="13"/>
       <c r="F123" s="3" t="s">
         <v>6</v>
       </c>
@@ -5436,33 +5747,33 @@
       </c>
       <c r="I123" s="4"/>
       <c r="J123" s="5"/>
-      <c r="K123" s="32">
+      <c r="K123" s="28">
         <v>6.915</v>
       </c>
-      <c r="L123" s="32">
+      <c r="L123" s="28">
         <v>6.915</v>
       </c>
-      <c r="M123" s="32">
+      <c r="M123" s="28">
         <v>6.915</v>
       </c>
-      <c r="N123" s="33"/>
-      <c r="O123" s="32"/>
-      <c r="P123" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q123" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="R123" s="34" t="s">
-        <v>82</v>
+      <c r="N123" s="29"/>
+      <c r="O123" s="28"/>
+      <c r="P123" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q123" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="R123" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="S123" s="1"/>
     </row>
     <row r="124" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B124" s="1"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="38"/>
-      <c r="E124" s="17"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="13"/>
       <c r="F124" s="3" t="s">
         <v>4</v>
       </c>
@@ -5472,75 +5783,75 @@
       </c>
       <c r="I124" s="4"/>
       <c r="J124" s="5"/>
-      <c r="K124" s="32">
+      <c r="K124" s="28">
         <v>5.5030000000000001</v>
       </c>
-      <c r="L124" s="32">
+      <c r="L124" s="28">
         <v>6.6920000000000002</v>
       </c>
-      <c r="M124" s="32">
+      <c r="M124" s="28">
         <v>7.1479999999999997</v>
       </c>
-      <c r="N124" s="33"/>
-      <c r="O124" s="32"/>
-      <c r="P124" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q124" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="R124" s="34" t="s">
-        <v>84</v>
+      <c r="N124" s="29"/>
+      <c r="O124" s="28"/>
+      <c r="P124" s="28">
+        <v>0.378</v>
+      </c>
+      <c r="Q124" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="R124" s="28" t="s">
+        <v>96</v>
       </c>
       <c r="S124" s="1"/>
     </row>
     <row r="125" spans="2:28" ht="5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="1"/>
-      <c r="C125" s="21"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="22"/>
-      <c r="H125" s="23"/>
-      <c r="I125" s="24"/>
-      <c r="J125" s="23"/>
-      <c r="K125" s="36"/>
-      <c r="L125" s="36"/>
-      <c r="M125" s="36"/>
-      <c r="N125" s="37"/>
-      <c r="O125" s="36"/>
-      <c r="P125" s="36"/>
-      <c r="Q125" s="36"/>
-      <c r="R125" s="36"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="19"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="19"/>
+      <c r="K125" s="30"/>
+      <c r="L125" s="30"/>
+      <c r="M125" s="30"/>
+      <c r="N125" s="31"/>
+      <c r="O125" s="30"/>
+      <c r="P125" s="30"/>
+      <c r="Q125" s="30"/>
+      <c r="R125" s="30"/>
       <c r="S125" s="1"/>
     </row>
     <row r="126" spans="2:28" ht="5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="1"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="38"/>
-      <c r="E126" s="17"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="13"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="5"/>
       <c r="I126" s="4"/>
       <c r="J126" s="5"/>
-      <c r="K126" s="32"/>
-      <c r="L126" s="32"/>
-      <c r="M126" s="32"/>
-      <c r="N126" s="33"/>
-      <c r="O126" s="32"/>
-      <c r="P126" s="32"/>
-      <c r="Q126" s="32"/>
-      <c r="R126" s="32"/>
+      <c r="K126" s="28"/>
+      <c r="L126" s="28"/>
+      <c r="M126" s="28"/>
+      <c r="N126" s="29"/>
+      <c r="O126" s="28"/>
+      <c r="P126" s="28"/>
+      <c r="Q126" s="28"/>
+      <c r="R126" s="28"/>
       <c r="S126" s="1"/>
     </row>
     <row r="127" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B127" s="1"/>
-      <c r="C127" s="16" t="s">
+      <c r="C127" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D127" s="38"/>
-      <c r="E127" s="17"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="13"/>
       <c r="F127" s="3" t="s">
         <v>21</v>
       </c>
@@ -5550,33 +5861,33 @@
       </c>
       <c r="I127" s="4"/>
       <c r="J127" s="5"/>
-      <c r="K127" s="32">
+      <c r="K127" s="28">
         <v>5.6859999999999999</v>
       </c>
-      <c r="L127" s="32">
+      <c r="L127" s="28">
         <v>6.1059999999999999</v>
       </c>
-      <c r="M127" s="32">
+      <c r="M127" s="28">
         <v>6.1829999999999998</v>
       </c>
-      <c r="N127" s="33"/>
-      <c r="O127" s="32"/>
-      <c r="P127" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q127" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="R127" s="34" t="s">
-        <v>87</v>
+      <c r="N127" s="29"/>
+      <c r="O127" s="28"/>
+      <c r="P127" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q127" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="R127" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="S127" s="1"/>
     </row>
     <row r="128" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B128" s="1"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="38"/>
-      <c r="E128" s="17"/>
+      <c r="C128" s="41"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="13"/>
       <c r="F128" s="3" t="s">
         <v>7</v>
       </c>
@@ -5586,33 +5897,33 @@
       </c>
       <c r="I128" s="4"/>
       <c r="J128" s="5"/>
-      <c r="K128" s="32">
+      <c r="K128" s="28">
         <v>5.6859999999999999</v>
       </c>
-      <c r="L128" s="32">
+      <c r="L128" s="28">
         <v>6.1059999999999999</v>
       </c>
-      <c r="M128" s="32">
+      <c r="M128" s="28">
         <v>6.1829999999999998</v>
       </c>
-      <c r="N128" s="33"/>
-      <c r="O128" s="32"/>
-      <c r="P128" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q128" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="R128" s="34" t="s">
-        <v>87</v>
+      <c r="N128" s="29"/>
+      <c r="O128" s="28"/>
+      <c r="P128" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q128" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="R128" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="S128" s="1"/>
     </row>
     <row r="129" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B129" s="1"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="38"/>
-      <c r="E129" s="17"/>
+      <c r="C129" s="41"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="13"/>
       <c r="F129" s="3" t="s">
         <v>10</v>
       </c>
@@ -5622,75 +5933,75 @@
       </c>
       <c r="I129" s="4"/>
       <c r="J129" s="5"/>
-      <c r="K129" s="32">
+      <c r="K129" s="28">
         <v>6.915</v>
       </c>
-      <c r="L129" s="32">
+      <c r="L129" s="28">
         <v>6.915</v>
       </c>
-      <c r="M129" s="32">
+      <c r="M129" s="28">
         <v>6.915</v>
       </c>
-      <c r="N129" s="33"/>
-      <c r="O129" s="32"/>
-      <c r="P129" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q129" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="R129" s="34" t="s">
-        <v>82</v>
+      <c r="N129" s="29"/>
+      <c r="O129" s="28"/>
+      <c r="P129" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q129" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="R129" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="S129" s="1"/>
     </row>
     <row r="130" spans="2:19" ht="5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="1"/>
-      <c r="C130" s="21"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="21"/>
-      <c r="F130" s="22"/>
-      <c r="G130" s="22"/>
-      <c r="H130" s="23"/>
-      <c r="I130" s="24"/>
-      <c r="J130" s="23"/>
-      <c r="K130" s="36"/>
-      <c r="L130" s="36"/>
-      <c r="M130" s="36"/>
-      <c r="N130" s="37"/>
-      <c r="O130" s="36"/>
-      <c r="P130" s="36"/>
-      <c r="Q130" s="36"/>
-      <c r="R130" s="36"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="30"/>
+      <c r="L130" s="30"/>
+      <c r="M130" s="30"/>
+      <c r="N130" s="31"/>
+      <c r="O130" s="30"/>
+      <c r="P130" s="30"/>
+      <c r="Q130" s="30"/>
+      <c r="R130" s="30"/>
       <c r="S130" s="1"/>
     </row>
     <row r="131" spans="2:19" ht="5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="1"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="38"/>
-      <c r="E131" s="17"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="13"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="5"/>
       <c r="I131" s="4"/>
       <c r="J131" s="5"/>
-      <c r="K131" s="32"/>
-      <c r="L131" s="32"/>
-      <c r="M131" s="32"/>
-      <c r="N131" s="33"/>
-      <c r="O131" s="32"/>
-      <c r="P131" s="32"/>
-      <c r="Q131" s="32"/>
-      <c r="R131" s="32"/>
+      <c r="K131" s="28"/>
+      <c r="L131" s="28"/>
+      <c r="M131" s="28"/>
+      <c r="N131" s="29"/>
+      <c r="O131" s="28"/>
+      <c r="P131" s="28"/>
+      <c r="Q131" s="28"/>
+      <c r="R131" s="28"/>
       <c r="S131" s="1"/>
     </row>
     <row r="132" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B132" s="1"/>
-      <c r="C132" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D132" s="38"/>
-      <c r="E132" s="18"/>
+      <c r="C132" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D132" s="32"/>
+      <c r="E132" s="14"/>
       <c r="F132" s="3" t="s">
         <v>7</v>
       </c>
@@ -5700,33 +6011,33 @@
       </c>
       <c r="I132" s="4"/>
       <c r="J132" s="5"/>
-      <c r="K132" s="32">
+      <c r="K132" s="28">
         <v>5.9119999999999999</v>
       </c>
-      <c r="L132" s="32">
+      <c r="L132" s="28">
         <v>5.9119999999999999</v>
       </c>
-      <c r="M132" s="32">
+      <c r="M132" s="28">
         <v>5.9119999999999999</v>
       </c>
-      <c r="N132" s="33"/>
-      <c r="O132" s="32"/>
-      <c r="P132" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q132" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="R132" s="32" t="s">
-        <v>88</v>
+      <c r="N132" s="29"/>
+      <c r="O132" s="28"/>
+      <c r="P132" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q132" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="R132" s="28" t="s">
+        <v>103</v>
       </c>
       <c r="S132" s="1"/>
     </row>
     <row r="133" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B133" s="1"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="38"/>
-      <c r="E133" s="14"/>
+      <c r="C133" s="41"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="12"/>
       <c r="F133" s="3" t="s">
         <v>8</v>
       </c>
@@ -5736,99 +6047,99 @@
       </c>
       <c r="I133" s="4"/>
       <c r="J133" s="5"/>
-      <c r="K133" s="32">
+      <c r="K133" s="28">
         <v>5.5030000000000001</v>
       </c>
-      <c r="L133" s="32">
+      <c r="L133" s="28">
         <v>5.5030000000000001</v>
       </c>
-      <c r="M133" s="32">
+      <c r="M133" s="28">
         <v>5.5030000000000001</v>
       </c>
-      <c r="N133" s="33"/>
-      <c r="O133" s="32"/>
-      <c r="P133" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q133" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="R133" s="32" t="s">
-        <v>89</v>
+      <c r="N133" s="29"/>
+      <c r="O133" s="28"/>
+      <c r="P133" s="28">
+        <v>0.378</v>
+      </c>
+      <c r="Q133" s="28">
+        <v>0.378</v>
+      </c>
+      <c r="R133" s="28">
+        <v>0.378</v>
       </c>
       <c r="S133" s="1"/>
     </row>
     <row r="134" spans="2:19" ht="5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="1"/>
-      <c r="C134" s="25"/>
-      <c r="D134" s="40"/>
-      <c r="E134" s="25"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="22"/>
-      <c r="H134" s="23"/>
-      <c r="I134" s="24"/>
-      <c r="J134" s="23"/>
-      <c r="K134" s="36"/>
-      <c r="L134" s="36"/>
-      <c r="M134" s="36"/>
-      <c r="N134" s="37"/>
-      <c r="O134" s="36"/>
-      <c r="P134" s="36"/>
-      <c r="Q134" s="36"/>
-      <c r="R134" s="36"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="34"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18"/>
+      <c r="H134" s="19"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="19"/>
+      <c r="K134" s="30"/>
+      <c r="L134" s="30"/>
+      <c r="M134" s="30"/>
+      <c r="N134" s="31"/>
+      <c r="O134" s="30"/>
+      <c r="P134" s="30"/>
+      <c r="Q134" s="30"/>
+      <c r="R134" s="30"/>
       <c r="S134" s="1"/>
     </row>
     <row r="135" spans="2:19" ht="5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="1"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="41"/>
-      <c r="E135" s="14"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="12"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="5"/>
       <c r="I135" s="4"/>
       <c r="J135" s="5"/>
-      <c r="K135" s="32"/>
-      <c r="L135" s="32"/>
-      <c r="M135" s="32"/>
-      <c r="N135" s="33"/>
-      <c r="O135" s="32"/>
-      <c r="P135" s="32"/>
-      <c r="Q135" s="32"/>
-      <c r="R135" s="32"/>
+      <c r="K135" s="28"/>
+      <c r="L135" s="28"/>
+      <c r="M135" s="28"/>
+      <c r="N135" s="29"/>
+      <c r="O135" s="28"/>
+      <c r="P135" s="28"/>
+      <c r="Q135" s="28"/>
+      <c r="R135" s="28"/>
       <c r="S135" s="1"/>
     </row>
     <row r="136" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="42"/>
+      <c r="D136" s="36"/>
       <c r="E136" s="1"/>
       <c r="F136" s="3" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="G136" s="3"/>
-      <c r="H136" s="19"/>
-      <c r="I136" s="20"/>
-      <c r="J136" s="19"/>
-      <c r="K136" s="32">
+      <c r="H136" s="15"/>
+      <c r="I136" s="16"/>
+      <c r="J136" s="15"/>
+      <c r="K136" s="28">
         <v>4.0129999999999999</v>
       </c>
-      <c r="L136" s="32">
+      <c r="L136" s="28">
         <v>4.0129999999999999</v>
       </c>
-      <c r="M136" s="32">
+      <c r="M136" s="28">
         <v>4.0129999999999999</v>
       </c>
-      <c r="N136" s="33"/>
-      <c r="O136" s="32"/>
-      <c r="P136" s="32">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="Q136" s="32">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="R136" s="32">
-        <v>0.29599999999999999</v>
+      <c r="N136" s="29"/>
+      <c r="O136" s="28"/>
+      <c r="P136" s="38">
+        <v>0.24360000000000001</v>
+      </c>
+      <c r="Q136" s="38">
+        <v>0.24360000000000001</v>
+      </c>
+      <c r="R136" s="38">
+        <v>0.24360000000000001</v>
       </c>
       <c r="S136" s="1"/>
     </row>
@@ -5857,11 +6168,11 @@
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="29"/>
-      <c r="G138" s="29"/>
-      <c r="H138" s="29"/>
-      <c r="I138" s="29"/>
-      <c r="J138" s="29"/>
+      <c r="F138" s="25"/>
+      <c r="G138" s="25"/>
+      <c r="H138" s="25"/>
+      <c r="I138" s="25"/>
+      <c r="J138" s="25"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
@@ -5901,7 +6212,7 @@
         <v>5.2779999999999996</v>
       </c>
       <c r="G140" s="1"/>
-      <c r="H140" s="28" t="s">
+      <c r="H140" s="24" t="s">
         <v>24</v>
       </c>
       <c r="I140" s="1"/>
@@ -5924,8 +6235,8 @@
       <c r="F141" s="5">
         <v>6.915</v>
       </c>
-      <c r="G141" s="27"/>
-      <c r="H141" s="28" t="s">
+      <c r="G141" s="23"/>
+      <c r="H141" s="24" t="s">
         <v>22</v>
       </c>
       <c r="I141" s="1"/>
@@ -5948,8 +6259,8 @@
       <c r="F142" s="5">
         <v>0.56200000000000006</v>
       </c>
-      <c r="G142" s="27"/>
-      <c r="H142" s="28" t="s">
+      <c r="G142" s="23"/>
+      <c r="H142" s="24" t="s">
         <v>23</v>
       </c>
       <c r="I142" s="1"/>
@@ -5964,7 +6275,7 @@
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
     </row>
-    <row r="143" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:19" ht="5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -5984,13 +6295,14 @@
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
     </row>
-    <row r="144" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
+      <c r="E144" s="39" t="s">
+        <v>100</v>
+      </c>
       <c r="F144" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -6012,7 +6324,7 @@
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
@@ -6034,7 +6346,7 @@
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -6050,7 +6362,7 @@
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
     </row>
-    <row r="147" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:19" ht="5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -6070,12 +6382,15 @@
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
     </row>
-    <row r="148" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
+      <c r="E148" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -6159,357 +6474,432 @@
     <mergeCell ref="C18:C20"/>
   </mergeCells>
   <conditionalFormatting sqref="K10:O26 K128:O135">
-    <cfRule type="cellIs" dxfId="73" priority="76" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="103" operator="greaterThan">
       <formula>$K$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:O22 K128:O131">
-    <cfRule type="cellIs" dxfId="72" priority="75" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="102" operator="greaterThan">
       <formula>$K$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:R26">
-    <cfRule type="cellIs" dxfId="71" priority="74" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="101" operator="greaterThan">
       <formula>$P$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:R22">
-    <cfRule type="cellIs" dxfId="70" priority="73" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="100" operator="greaterThan">
       <formula>$P$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32 G101">
-    <cfRule type="cellIs" dxfId="69" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="99" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="top10" dxfId="68" priority="71" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="83" priority="98" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="67" priority="70" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="97" operator="lessThan">
       <formula>$X32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="top10" dxfId="66" priority="69" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="81" priority="96" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="65" priority="68" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="95" operator="greaterThan">
       <formula>$K$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="64" priority="67" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="94" operator="greaterThan">
       <formula>$K$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="63" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="93" operator="greaterThan">
       <formula>$K$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="62" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="92" operator="greaterThan">
       <formula>$K$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="61" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="91" operator="greaterThan">
       <formula>$P$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="60" priority="63" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="90" operator="greaterThan">
       <formula>$P$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:O61">
-    <cfRule type="cellIs" dxfId="59" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="89" operator="greaterThan">
       <formula>$K$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:O57">
-    <cfRule type="cellIs" dxfId="58" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="88" operator="greaterThan">
       <formula>$K$23</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P45:R61 P128:R135">
-    <cfRule type="cellIs" dxfId="57" priority="60" operator="greaterThan">
+  <conditionalFormatting sqref="P45:R61 P130:R131 P134:R135">
+    <cfRule type="cellIs" dxfId="72" priority="87" operator="greaterThan">
       <formula>$P$62</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P45:R57">
-    <cfRule type="cellIs" dxfId="56" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="86" operator="greaterThan">
       <formula>$P$58</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="55" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="85" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="top10" dxfId="54" priority="57" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="69" priority="84" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="cellIs" dxfId="53" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="83" operator="lessThan">
       <formula>$X67</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="top10" dxfId="52" priority="55" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="67" priority="82" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="cellIs" dxfId="51" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="81" operator="greaterThan">
       <formula>$K$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="cellIs" dxfId="50" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="80" operator="greaterThan">
       <formula>$K$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="49" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="79" operator="greaterThan">
       <formula>$K$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="48" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="78" operator="greaterThan">
       <formula>$K$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="cellIs" dxfId="47" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="77" operator="greaterThan">
       <formula>$P$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="cellIs" dxfId="46" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="76" operator="greaterThan">
       <formula>$P$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K78:O94">
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="75" operator="greaterThan">
       <formula>$K$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K78:O90">
-    <cfRule type="cellIs" dxfId="44" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="74" operator="greaterThan">
       <formula>$K$23</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P78:R94">
-    <cfRule type="cellIs" dxfId="43" priority="46" operator="greaterThan">
+  <conditionalFormatting sqref="P120:R121">
+    <cfRule type="cellIs" dxfId="58" priority="46" operator="greaterThan">
       <formula>$P$62</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100">
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="71" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100">
-    <cfRule type="top10" dxfId="41" priority="43" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="56" priority="70" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G101">
-    <cfRule type="top10" dxfId="40" priority="41" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="55" priority="68" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F99">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="67" operator="greaterThan">
       <formula>$K$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F99">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="66" operator="greaterThan">
       <formula>$K$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="65" operator="greaterThan">
       <formula>$K$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="64" operator="greaterThan">
       <formula>$K$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="63" operator="greaterThan">
       <formula>$P$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="62" operator="greaterThan">
       <formula>$P$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G142">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="61" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K125:O126">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="60" operator="greaterThan">
       <formula>$K$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K125:O126">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="59" operator="greaterThan">
       <formula>$K$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P125:R126">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="58" operator="greaterThan">
       <formula>$P$62</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G141">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="57" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G141">
-    <cfRule type="top10" dxfId="28" priority="29" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="43" priority="56" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G142">
-    <cfRule type="top10" dxfId="27" priority="28" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="42" priority="55" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="54" operator="greaterThan">
       <formula>$K$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="53" operator="greaterThan">
       <formula>$K$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="52" operator="greaterThan">
       <formula>$K$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="51" operator="greaterThan">
       <formula>$K$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="50" operator="greaterThan">
       <formula>$P$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="49" operator="greaterThan">
       <formula>$P$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K119:O121">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="48" operator="greaterThan">
       <formula>$K$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K119:O121">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="47" operator="greaterThan">
       <formula>$K$23</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P119:R121">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThan">
-      <formula>$P$62</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K117:O117">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="45" operator="greaterThan">
       <formula>$K$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K117:O117">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="44" operator="greaterThan">
       <formula>$K$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P117:R117">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="43" operator="greaterThan">
       <formula>$P$62</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K123:O123">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="42" operator="greaterThan">
       <formula>$K$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K123:O123">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="41" operator="greaterThan">
       <formula>$K$23</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P123:R123">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+  <conditionalFormatting sqref="P122:R122">
+    <cfRule type="cellIs" dxfId="28" priority="23" operator="greaterThan">
       <formula>$P$62</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124:O124">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="greaterThan">
       <formula>$K$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124:O124">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="38" operator="greaterThan">
+      <formula>$K$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K122:O122">
+    <cfRule type="cellIs" dxfId="25" priority="36" operator="greaterThan">
+      <formula>$K$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K122:O122">
+    <cfRule type="cellIs" dxfId="24" priority="35" operator="greaterThan">
+      <formula>$K$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K118:O118">
+    <cfRule type="cellIs" dxfId="23" priority="33" operator="greaterThan">
+      <formula>$K$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K118:O118">
+    <cfRule type="cellIs" dxfId="22" priority="32" operator="greaterThan">
+      <formula>$K$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K127:O127">
+    <cfRule type="cellIs" dxfId="21" priority="30" operator="greaterThan">
+      <formula>$K$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K127:O127">
+    <cfRule type="cellIs" dxfId="20" priority="29" operator="greaterThan">
       <formula>$K$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P124:R124">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="greaterThan">
       <formula>$P$62</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K122:O122">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
-      <formula>$K$27</formula>
+  <conditionalFormatting sqref="P78:R94">
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="greaterThan">
+      <formula>$P$62</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K122:O122">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
-      <formula>$K$23</formula>
+  <conditionalFormatting sqref="P78:R90">
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="greaterThan">
+      <formula>$P$58</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V100:X116">
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="greaterThan">
+      <formula>$P$62</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V100:X112">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="greaterThan">
+      <formula>$P$58</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P122:R122">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="greaterThan">
+      <formula>$P$58</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P119 R119">
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="greaterThan">
+      <formula>$P$62</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P119 R119">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="greaterThan">
+      <formula>$P$58</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P118:R118">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="greaterThan">
+      <formula>$P$62</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P118:R118">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="greaterThan">
+      <formula>$P$58</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P124:R124">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="greaterThan">
+      <formula>$P$58</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P127:R127">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="greaterThan">
+      <formula>$P$62</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P127:R127">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="greaterThan">
+      <formula>$P$58</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P132:R133">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>$P$62</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K118:O118">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
-      <formula>$K$27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K118:O118">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
-      <formula>$K$23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P118:R118">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="P128:R128">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="greaterThan">
       <formula>$P$62</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K127:O127">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
-      <formula>$K$27</formula>
+  <conditionalFormatting sqref="P128:R128">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
+      <formula>$P$58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K127:O127">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>$K$23</formula>
+  <conditionalFormatting sqref="P123:R123">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+      <formula>$P$62</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P127:R127">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="P123:R123">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
+      <formula>$P$58</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P129:R129">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>$P$62</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P129:R129">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>$P$58</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6522,7 +6912,7 @@
   <dimension ref="B1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H34"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6573,7 +6963,7 @@
         <v>18</v>
       </c>
       <c r="I2">
-        <v>0.57649293330593465</v>
+        <v>0.45624415287115799</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
@@ -6599,7 +6989,7 @@
         <v>18</v>
       </c>
       <c r="I3">
-        <v>0.41858931583344405</v>
+        <v>0.31412111177249757</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
@@ -6625,7 +7015,7 @@
         <v>18</v>
       </c>
       <c r="I4">
-        <v>0.51177127699323144</v>
+        <v>0.38344495059684569</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
@@ -6651,7 +7041,7 @@
         <v>18</v>
       </c>
       <c r="I5">
-        <v>0.57649293330593465</v>
+        <v>0.45624415287115799</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
@@ -6677,7 +7067,7 @@
         <v>18</v>
       </c>
       <c r="I6">
-        <v>0.52067815582742838</v>
+        <v>0.39515931892694239</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
@@ -6703,7 +7093,7 @@
         <v>18</v>
       </c>
       <c r="I7">
-        <v>0.51004853403743244</v>
+        <v>0.37829927598619539</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
@@ -6729,7 +7119,7 @@
         <v>18</v>
       </c>
       <c r="I8">
-        <v>0.45288689610474597</v>
+        <v>0.33594288372240294</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
@@ -6755,7 +7145,7 @@
         <v>18</v>
       </c>
       <c r="I9">
-        <v>0.51004853403743244</v>
+        <v>0.37829927598619539</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
@@ -6781,7 +7171,7 @@
         <v>18</v>
       </c>
       <c r="I10">
-        <v>0.51177127699323144</v>
+        <v>0.38344495059684569</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
@@ -6807,7 +7197,7 @@
         <v>18</v>
       </c>
       <c r="I11">
-        <v>0.45288689610474597</v>
+        <v>0.33594288372240294</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
@@ -6833,7 +7223,7 @@
         <v>18</v>
       </c>
       <c r="I12">
-        <v>0.57649293330593465</v>
+        <v>0.45624415287115799</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
@@ -6859,7 +7249,7 @@
         <v>14</v>
       </c>
       <c r="I13">
-        <v>0.57649293330593465</v>
+        <v>0.45624415287115799</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
@@ -6885,7 +7275,7 @@
         <v>14</v>
       </c>
       <c r="I14">
-        <v>0.47568581340023613</v>
+        <v>0.36461563082331594</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
@@ -6911,7 +7301,7 @@
         <v>14</v>
       </c>
       <c r="I15">
-        <v>0.52918314313960957</v>
+        <v>0.40547970103667658</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
@@ -6937,7 +7327,7 @@
         <v>14</v>
       </c>
       <c r="I16">
-        <v>0.57649293330593465</v>
+        <v>0.45624415287115799</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
@@ -6963,7 +7353,7 @@
         <v>14</v>
       </c>
       <c r="I17">
-        <v>0.52067815582742838</v>
+        <v>0.39515931892694239</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
@@ -6989,7 +7379,7 @@
         <v>14</v>
       </c>
       <c r="I18">
-        <v>0.51004853403743244</v>
+        <v>0.37829927598619539</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
@@ -7015,7 +7405,7 @@
         <v>14</v>
       </c>
       <c r="I19">
-        <v>0.3777184707131051</v>
+        <v>0.26207600921530494</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
@@ -7041,7 +7431,7 @@
         <v>14</v>
       </c>
       <c r="I20">
-        <v>0.58249386248519175</v>
+        <v>0.45632384004622317</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
@@ -7067,7 +7457,7 @@
         <v>14</v>
       </c>
       <c r="I21">
-        <v>0.52918314313960957</v>
+        <v>0.40547970103667658</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
@@ -7093,7 +7483,7 @@
         <v>14</v>
       </c>
       <c r="I22">
-        <v>0.47384986205086177</v>
+        <v>0.35773574521851498</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
@@ -7119,7 +7509,7 @@
         <v>14</v>
       </c>
       <c r="I23">
-        <v>0.57649293330593465</v>
+        <v>0.45624415287115799</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
@@ -7145,7 +7535,7 @@
         <v>15</v>
       </c>
       <c r="I24">
-        <v>0.57649293330593465</v>
+        <v>0.45624415287115799</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
@@ -7171,7 +7561,7 @@
         <v>15</v>
       </c>
       <c r="I25">
-        <v>0.47301433468144799</v>
+        <v>0.36119059214602317</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
@@ -7197,7 +7587,7 @@
         <v>15</v>
       </c>
       <c r="I26">
-        <v>0.53158147392943433</v>
+        <v>0.40884974513999151</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
@@ -7223,7 +7613,7 @@
         <v>15</v>
       </c>
       <c r="I27">
-        <v>0.57649293330593465</v>
+        <v>0.45624415287115799</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
@@ -7249,7 +7639,7 @@
         <v>15</v>
       </c>
       <c r="I28">
-        <v>0.52067815582742838</v>
+        <v>0.39515931892694239</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
@@ -7275,7 +7665,7 @@
         <v>15</v>
       </c>
       <c r="I29">
-        <v>0.51004853403743244</v>
+        <v>0.37829927598619539</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
@@ -7301,7 +7691,7 @@
         <v>15</v>
       </c>
       <c r="I30">
-        <v>0.41096876725165948</v>
+        <v>0.29897723023340483</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
@@ -7327,7 +7717,7 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.60877543307909732</v>
+        <v>0.4844306313932415</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.35">
@@ -7353,7 +7743,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.53158147392943433</v>
+        <v>0.40884974513999151</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.35">
@@ -7379,7 +7769,7 @@
         <v>15</v>
       </c>
       <c r="I33">
-        <v>0.41642889129409733</v>
+        <v>0.30316099036946637</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.35">
@@ -7405,7 +7795,7 @@
         <v>15</v>
       </c>
       <c r="I34">
-        <v>0.57649293330593465</v>
+        <v>0.45624415287115799</v>
       </c>
     </row>
   </sheetData>
@@ -7418,7 +7808,7 @@
   <dimension ref="B1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7463,7 +7853,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2.7204171745334394E-2</v>
+        <v>2.8008170862197181E-2</v>
       </c>
       <c r="F2">
         <v>0.16688081032949473</v>
@@ -7496,7 +7886,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.30572088319671287</v>
+        <v>0.21954705696049964</v>
       </c>
       <c r="F3">
         <v>0.12117151865326234</v>
@@ -7529,7 +7919,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>6.2448581041792996E-2</v>
+        <v>8.3225790463991561E-2</v>
       </c>
       <c r="F4">
         <v>0.14814545066186954</v>
@@ -7562,7 +7952,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>2.7204171745334394E-2</v>
+        <v>2.8008170862197181E-2</v>
       </c>
       <c r="F5">
         <v>0.16688081032949473</v>
@@ -7595,7 +7985,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>3.0923261548051636E-2</v>
+        <v>4.1308506955944506E-2</v>
       </c>
       <c r="F6">
         <v>0.15072377742267423</v>
@@ -7628,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>8.1046939107239022E-2</v>
+        <v>0.11485207591307954</v>
       </c>
       <c r="F7">
         <v>0.14764675809541505</v>
@@ -7647,7 +8037,7 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>*</v>
+        <v>ns</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
@@ -7661,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0.21685643212387501</v>
+        <v>0.2111831904292947</v>
       </c>
       <c r="F8">
         <v>0.1310998415473407</v>
@@ -7694,7 +8084,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>8.1046939107239022E-2</v>
+        <v>0.11485207591307954</v>
       </c>
       <c r="F9">
         <v>0.14764675809541505</v>
@@ -7713,7 +8103,7 @@
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>*</v>
+        <v>ns</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
@@ -7727,7 +8117,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>6.2448581041792996E-2</v>
+        <v>8.3225790463991561E-2</v>
       </c>
       <c r="F10">
         <v>0.14814545066186954</v>
@@ -7760,7 +8150,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0.21685643212387501</v>
+        <v>0.2111831904292947</v>
       </c>
       <c r="F11">
         <v>0.1310998415473407</v>
@@ -7793,7 +8183,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>2.7204171745334394E-2</v>
+        <v>2.8008170862197181E-2</v>
       </c>
       <c r="F12">
         <v>0.16688081032949473</v>
@@ -7826,7 +8216,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>2.7204171745334394E-2</v>
+        <v>2.8008170862197181E-2</v>
       </c>
       <c r="F13">
         <v>0.16688081032949473</v>
@@ -7859,7 +8249,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>0.11590123775580241</v>
+        <v>9.7932862797716305E-2</v>
       </c>
       <c r="F14">
         <v>0.13769957863533638</v>
@@ -7878,7 +8268,7 @@
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
-        <v>ns</v>
+        <v>*</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.35">
@@ -7892,7 +8282,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>6.1346018336813857E-2</v>
+        <v>6.9590137111424588E-2</v>
       </c>
       <c r="F15">
         <v>0.15318576627370767</v>
@@ -7925,7 +8315,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>2.7204171745334394E-2</v>
+        <v>2.8008170862197181E-2</v>
       </c>
       <c r="F16">
         <v>0.16688081032949473</v>
@@ -7958,7 +8348,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>3.0923261548051636E-2</v>
+        <v>4.1308506955944506E-2</v>
       </c>
       <c r="F17">
         <v>0.15072377742267423</v>
@@ -7991,7 +8381,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>8.1046939107239022E-2</v>
+        <v>0.11485207591307954</v>
       </c>
       <c r="F18">
         <v>0.14764675809541505</v>
@@ -8010,7 +8400,7 @@
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
-        <v>*</v>
+        <v>ns</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
@@ -8024,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>0.78699520713754467</v>
+        <v>0.78092318389798643</v>
       </c>
       <c r="F19">
         <v>0.10934039400543617</v>
@@ -8057,7 +8447,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>2.1357428799168892E-2</v>
+        <v>2.5612826002647551E-2</v>
       </c>
       <c r="F20">
         <v>0.16861793470051092</v>
@@ -8090,7 +8480,7 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>6.1346018336813857E-2</v>
+        <v>6.9590137111424588E-2</v>
       </c>
       <c r="F21">
         <v>0.15318576627370767</v>
@@ -8123,7 +8513,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>0.10219581193546706</v>
+        <v>0.10003173351249606</v>
       </c>
       <c r="F22">
         <v>0.13716811496733938</v>
@@ -8156,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>2.7204171745334394E-2</v>
+        <v>2.8008170862197181E-2</v>
       </c>
       <c r="F23">
         <v>0.16688081032949473</v>
@@ -8189,7 +8579,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>2.7204171745334394E-2</v>
+        <v>2.8008170862197181E-2</v>
       </c>
       <c r="F24">
         <v>0.16688081032949473</v>
@@ -8222,7 +8612,7 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>0.11680945671835563</v>
+        <v>0.10212898064992441</v>
       </c>
       <c r="F25">
         <v>0.13692624993065852</v>
@@ -8255,7 +8645,7 @@
         <v>3</v>
       </c>
       <c r="E26">
-        <v>6.8588550832603207E-2</v>
+        <v>7.5262356193097263E-2</v>
       </c>
       <c r="F26">
         <v>0.15388002523599706</v>
@@ -8288,7 +8678,7 @@
         <v>3</v>
       </c>
       <c r="E27">
-        <v>2.7204171745334394E-2</v>
+        <v>2.8008170862197181E-2</v>
       </c>
       <c r="F27">
         <v>0.16688081032949473</v>
@@ -8321,7 +8711,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>3.0923261548051636E-2</v>
+        <v>4.1308506955944506E-2</v>
       </c>
       <c r="F28">
         <v>0.15072377742267423</v>
@@ -8354,7 +8744,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>8.1046939107239022E-2</v>
+        <v>0.11485207591307954</v>
       </c>
       <c r="F29">
         <v>0.14764675809541505</v>
@@ -8373,7 +8763,7 @@
       </c>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
-        <v>*</v>
+        <v>ns</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
@@ -8387,7 +8777,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>0.50160351714599816</v>
+        <v>0.46448899691671053</v>
       </c>
       <c r="F30">
         <v>0.11896555349911768</v>
@@ -8420,7 +8810,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>1.0591806919362469E-2</v>
+        <v>1.1977113943221672E-2</v>
       </c>
       <c r="F31">
         <v>0.17622581598414022</v>
@@ -8453,7 +8843,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>6.8588550832603207E-2</v>
+        <v>7.5262356193097263E-2</v>
       </c>
       <c r="F32">
         <v>0.15388002523599706</v>
@@ -8486,7 +8876,7 @@
         <v>3</v>
       </c>
       <c r="E33">
-        <v>0.40482107324164424</v>
+        <v>0.38039051333239893</v>
       </c>
       <c r="F33">
         <v>0.12054612781678765</v>
@@ -8519,7 +8909,7 @@
         <v>3</v>
       </c>
       <c r="E34">
-        <v>2.7204171745334394E-2</v>
+        <v>2.8008170862197181E-2</v>
       </c>
       <c r="F34">
         <v>0.16688081032949473</v>
